--- a/facilityData_brynjar.xlsx
+++ b/facilityData_brynjar.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD04052-890A-4800-B088-75C8A4CA2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="4" xr2:uid="{616461DC-34B2-47D2-883A-9C7FE9A966CA}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="4" xr2:uid="{616461DC-34B2-47D2-883A-9C7FE9A966CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -291,13 +291,13 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2452,38 +2452,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
-      <c r="AD1" s="1"/>
-      <c r="AE1" s="1"/>
-      <c r="AF1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
@@ -2578,7 +2578,7 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B3">
@@ -2676,7 +2676,7 @@
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="3"/>
       <c r="B4">
         <v>2</v>
       </c>
@@ -2772,7 +2772,7 @@
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
+      <c r="A5" s="3"/>
       <c r="B5">
         <v>3</v>
       </c>
@@ -2868,7 +2868,7 @@
       </c>
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6">
         <v>4</v>
       </c>
@@ -2964,7 +2964,7 @@
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A7" s="2"/>
+      <c r="A7" s="3"/>
       <c r="B7">
         <v>5</v>
       </c>
@@ -3060,7 +3060,7 @@
       </c>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8">
         <v>6</v>
       </c>
@@ -3156,7 +3156,7 @@
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9">
         <v>7</v>
       </c>
@@ -3252,7 +3252,7 @@
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10">
         <v>8</v>
       </c>
@@ -3348,7 +3348,7 @@
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11">
         <v>9</v>
       </c>
@@ -3444,7 +3444,7 @@
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12">
         <v>10</v>
       </c>
@@ -3540,7 +3540,7 @@
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13">
         <v>11</v>
       </c>
@@ -3636,7 +3636,7 @@
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14">
         <v>12</v>
       </c>
@@ -3732,7 +3732,7 @@
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A15" s="2"/>
+      <c r="A15" s="3"/>
       <c r="B15">
         <v>13</v>
       </c>
@@ -3828,7 +3828,7 @@
       </c>
     </row>
     <row r="16" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A16" s="2"/>
+      <c r="A16" s="3"/>
       <c r="B16">
         <v>14</v>
       </c>
@@ -3924,7 +3924,7 @@
       </c>
     </row>
     <row r="17" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
+      <c r="A17" s="3"/>
       <c r="B17">
         <v>15</v>
       </c>
@@ -4020,7 +4020,7 @@
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18">
         <v>16</v>
       </c>
@@ -4116,7 +4116,7 @@
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19">
         <v>17</v>
       </c>
@@ -4212,7 +4212,7 @@
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
+      <c r="A20" s="3"/>
       <c r="B20">
         <v>18</v>
       </c>
@@ -4308,7 +4308,7 @@
       </c>
     </row>
     <row r="21" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A21" s="2"/>
+      <c r="A21" s="3"/>
       <c r="B21">
         <v>19</v>
       </c>
@@ -4404,7 +4404,7 @@
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
+      <c r="A22" s="3"/>
       <c r="B22">
         <v>20</v>
       </c>
@@ -4500,7 +4500,7 @@
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A23" s="2"/>
+      <c r="A23" s="3"/>
       <c r="B23">
         <v>21</v>
       </c>
@@ -4596,7 +4596,7 @@
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
+      <c r="A24" s="3"/>
       <c r="B24">
         <v>22</v>
       </c>
@@ -4692,7 +4692,7 @@
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A25" s="2"/>
+      <c r="A25" s="3"/>
       <c r="B25">
         <v>23</v>
       </c>
@@ -4788,7 +4788,7 @@
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26">
         <v>24</v>
       </c>
@@ -4884,7 +4884,7 @@
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27">
         <v>25</v>
       </c>
@@ -4980,7 +4980,7 @@
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28">
         <v>26</v>
       </c>
@@ -5076,7 +5076,7 @@
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A29" s="2"/>
+      <c r="A29" s="3"/>
       <c r="B29">
         <v>27</v>
       </c>
@@ -5172,7 +5172,7 @@
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A30" s="2"/>
+      <c r="A30" s="3"/>
       <c r="B30">
         <v>28</v>
       </c>
@@ -5268,7 +5268,7 @@
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+      <c r="A31" s="3"/>
       <c r="B31">
         <v>29</v>
       </c>
@@ -5364,7 +5364,7 @@
       </c>
     </row>
     <row r="32" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+      <c r="A32" s="3"/>
       <c r="B32">
         <v>30</v>
       </c>
@@ -5460,7 +5460,7 @@
       </c>
     </row>
     <row r="33" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="3"/>
       <c r="B33">
         <v>31</v>
       </c>
@@ -5556,7 +5556,7 @@
       </c>
     </row>
     <row r="34" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="3"/>
       <c r="B34">
         <v>32</v>
       </c>
@@ -5652,7 +5652,7 @@
       </c>
     </row>
     <row r="35" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="3"/>
       <c r="B35">
         <v>33</v>
       </c>
@@ -5748,7 +5748,7 @@
       </c>
     </row>
     <row r="36" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="3"/>
       <c r="B36">
         <v>34</v>
       </c>
@@ -5844,7 +5844,7 @@
       </c>
     </row>
     <row r="37" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A37" s="2"/>
+      <c r="A37" s="3"/>
       <c r="B37">
         <v>35</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
     </row>
     <row r="38" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A38" s="2"/>
+      <c r="A38" s="3"/>
       <c r="B38">
         <v>36</v>
       </c>
@@ -6036,7 +6036,7 @@
       </c>
     </row>
     <row r="39" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A39" s="2"/>
+      <c r="A39" s="3"/>
       <c r="B39">
         <v>37</v>
       </c>
@@ -6132,7 +6132,7 @@
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A40" s="2"/>
+      <c r="A40" s="3"/>
       <c r="B40">
         <v>38</v>
       </c>
@@ -6228,7 +6228,7 @@
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A41" s="2"/>
+      <c r="A41" s="3"/>
       <c r="B41">
         <v>39</v>
       </c>
@@ -6324,7 +6324,7 @@
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A42" s="2"/>
+      <c r="A42" s="3"/>
       <c r="B42">
         <v>40</v>
       </c>
@@ -6420,7 +6420,7 @@
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A43" s="2"/>
+      <c r="A43" s="3"/>
       <c r="B43">
         <v>41</v>
       </c>
@@ -6516,7 +6516,7 @@
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A44" s="2"/>
+      <c r="A44" s="3"/>
       <c r="B44">
         <v>42</v>
       </c>
@@ -6612,7 +6612,7 @@
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A45" s="2"/>
+      <c r="A45" s="3"/>
       <c r="B45">
         <v>43</v>
       </c>
@@ -6708,7 +6708,7 @@
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A46" s="2"/>
+      <c r="A46" s="3"/>
       <c r="B46">
         <v>44</v>
       </c>
@@ -6804,7 +6804,7 @@
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A47" s="2"/>
+      <c r="A47" s="3"/>
       <c r="B47">
         <v>45</v>
       </c>
@@ -6900,7 +6900,7 @@
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A48" s="2"/>
+      <c r="A48" s="3"/>
       <c r="B48">
         <v>46</v>
       </c>
@@ -6996,7 +6996,7 @@
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A49" s="2"/>
+      <c r="A49" s="3"/>
       <c r="B49">
         <v>47</v>
       </c>
@@ -7092,7 +7092,7 @@
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="3"/>
       <c r="B50">
         <v>48</v>
       </c>
@@ -7188,7 +7188,7 @@
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="3"/>
       <c r="B51">
         <v>49</v>
       </c>
@@ -7284,7 +7284,7 @@
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="3"/>
       <c r="B52">
         <v>50</v>
       </c>
@@ -7380,7 +7380,7 @@
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="3"/>
       <c r="B53">
         <v>51</v>
       </c>
@@ -7476,7 +7476,7 @@
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="3"/>
       <c r="B54">
         <v>52</v>
       </c>
@@ -7572,7 +7572,7 @@
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="3"/>
       <c r="B55">
         <v>53</v>
       </c>
@@ -7668,7 +7668,7 @@
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="3"/>
       <c r="B56">
         <v>54</v>
       </c>
@@ -7764,7 +7764,7 @@
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="3"/>
       <c r="B57">
         <v>55</v>
       </c>
@@ -7860,7 +7860,7 @@
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="3"/>
       <c r="B58">
         <v>56</v>
       </c>
@@ -7956,7 +7956,7 @@
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="3"/>
       <c r="B59">
         <v>57</v>
       </c>
@@ -8052,7 +8052,7 @@
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="3"/>
       <c r="B60">
         <v>58</v>
       </c>
@@ -8148,7 +8148,7 @@
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="3"/>
       <c r="B61">
         <v>59</v>
       </c>
@@ -8244,7 +8244,7 @@
       </c>
     </row>
     <row r="62" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="3"/>
       <c r="B62">
         <v>60</v>
       </c>
@@ -8340,7 +8340,7 @@
       </c>
     </row>
     <row r="63" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A63" s="2"/>
+      <c r="A63" s="3"/>
       <c r="B63">
         <v>61</v>
       </c>
@@ -8436,7 +8436,7 @@
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A64" s="2"/>
+      <c r="A64" s="3"/>
       <c r="B64">
         <v>62</v>
       </c>
@@ -8532,7 +8532,7 @@
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A65" s="2"/>
+      <c r="A65" s="3"/>
       <c r="B65">
         <v>63</v>
       </c>
@@ -8628,7 +8628,7 @@
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A66" s="2"/>
+      <c r="A66" s="3"/>
       <c r="B66">
         <v>64</v>
       </c>
@@ -8724,7 +8724,7 @@
       </c>
     </row>
     <row r="67" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A67" s="2"/>
+      <c r="A67" s="3"/>
       <c r="B67">
         <v>65</v>
       </c>
@@ -8820,7 +8820,7 @@
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A68" s="2"/>
+      <c r="A68" s="3"/>
       <c r="B68">
         <v>66</v>
       </c>
@@ -8916,7 +8916,7 @@
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A69" s="2"/>
+      <c r="A69" s="3"/>
       <c r="B69">
         <v>67</v>
       </c>
@@ -9012,7 +9012,7 @@
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B70" t="s">
@@ -9110,7 +9110,7 @@
       </c>
     </row>
     <row r="71" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A71" s="2"/>
+      <c r="A71" s="3"/>
       <c r="B71" t="s">
         <v>9</v>
       </c>
@@ -9206,7 +9206,7 @@
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A72" s="2"/>
+      <c r="A72" s="3"/>
       <c r="B72" t="s">
         <v>10</v>
       </c>
@@ -9302,7 +9302,7 @@
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A73" s="2"/>
+      <c r="A73" s="3"/>
       <c r="B73" t="s">
         <v>12</v>
       </c>
@@ -9398,7 +9398,7 @@
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A74" s="2"/>
+      <c r="A74" s="3"/>
       <c r="B74" t="s">
         <v>13</v>
       </c>
@@ -9494,7 +9494,7 @@
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A75" s="2"/>
+      <c r="A75" s="3"/>
       <c r="B75" t="s">
         <v>14</v>
       </c>
@@ -9590,7 +9590,7 @@
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A76" s="2"/>
+      <c r="A76" s="3"/>
       <c r="B76" t="s">
         <v>11</v>
       </c>
@@ -9686,7 +9686,7 @@
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A77" s="2"/>
+      <c r="A77" s="3"/>
       <c r="B77" t="s">
         <v>15</v>
       </c>
@@ -9782,7 +9782,7 @@
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A78" s="2"/>
+      <c r="A78" s="3"/>
       <c r="B78" t="s">
         <v>16</v>
       </c>
@@ -9878,7 +9878,7 @@
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A79" s="2"/>
+      <c r="A79" s="3"/>
       <c r="B79" t="s">
         <v>17</v>
       </c>
@@ -9987,8 +9987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1407E011-C170-4307-B166-14F2580075C6}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10704,43 +10704,43 @@
       <c r="J17">
         <v>1</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$3)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$3))*SIN(RADIANS(C2-$M$3)/2)^2))</f>
         <v>37.926436958788649</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$4)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$4))*SIN(RADIANS(C2-$M$4)/2)^2))</f>
         <v>185.97549933597512</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$5)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$5))*SIN(RADIANS(C2-$M$5)/2)^2))</f>
         <v>7.6369298455336123</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$6)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$6))*SIN(RADIANS(C2-$M$6)/2)^2))</f>
         <v>73.438360512278052</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$7)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$7))*SIN(RADIANS(C2-$M$7)/2)^2))</f>
         <v>145.59167539676068</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$8)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$8))*SIN(RADIANS(C2-$M$8)/2)^2))</f>
         <v>179.96660860655763</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$9)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$9))*SIN(RADIANS(C2-$M$9)/2)^2))</f>
         <v>27.420609771919256</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$10)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$10))*SIN(RADIANS(C2-$M$10)/2)^2))</f>
         <v>131.99537257556804</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$11)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$11))*SIN(RADIANS(C2-$M$11)/2)^2))</f>
         <v>13.995036835211785</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B2-$L$12)/2)^2 + COS(RADIANS(B2))*COS(RADIANS($L$12))*SIN(RADIANS(C2-$M$12)/2)^2))</f>
         <v>66.988682369745518</v>
       </c>
@@ -10769,43 +10769,43 @@
       <c r="J18">
         <v>2</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18" s="1">
         <f>6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$3)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$3))*SIN(RADIANS(C3-$M$3)/2)^2))</f>
         <v>31.81017215859638</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="1">
         <f t="shared" ref="L18:L81" si="6">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$4)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$4))*SIN(RADIANS(C3-$M$4)/2)^2))</f>
         <v>187.29886052462243</v>
       </c>
-      <c r="M18" s="3">
+      <c r="M18" s="1">
         <f t="shared" ref="M18:M81" si="7">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$5)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$5))*SIN(RADIANS(C3-$M$5)/2)^2))</f>
         <v>6.0254785501960173</v>
       </c>
-      <c r="N18" s="3">
+      <c r="N18" s="1">
         <f t="shared" ref="N18:N81" si="8">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$6)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$6))*SIN(RADIANS(C3-$M$6)/2)^2))</f>
         <v>71.727197126706912</v>
       </c>
-      <c r="O18" s="3">
+      <c r="O18" s="1">
         <f t="shared" ref="O18:O81" si="9">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$7)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$7))*SIN(RADIANS(C3-$M$7)/2)^2))</f>
         <v>145.94566963467835</v>
       </c>
-      <c r="P18" s="3">
+      <c r="P18" s="1">
         <f t="shared" ref="P18:P81" si="10">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$8)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$8))*SIN(RADIANS(C3-$M$8)/2)^2))</f>
         <v>180.24978590413451</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="Q18" s="1">
         <f t="shared" ref="Q18:Q81" si="11">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$9)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$9))*SIN(RADIANS(C3-$M$9)/2)^2))</f>
         <v>35.253933608463612</v>
       </c>
-      <c r="R18" s="3">
+      <c r="R18" s="1">
         <f t="shared" ref="R18:R81" si="12">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$10)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$10))*SIN(RADIANS(C3-$M$10)/2)^2))</f>
         <v>133.40704837726227</v>
       </c>
-      <c r="S18" s="3">
+      <c r="S18" s="1">
         <f t="shared" ref="S18:S81" si="13">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$11)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$11))*SIN(RADIANS(C3-$M$11)/2)^2))</f>
         <v>12.442743488979451</v>
       </c>
-      <c r="T18" s="3">
+      <c r="T18" s="1">
         <f t="shared" ref="T18:T81" si="14">6371.1*2*ASIN(SQRT(SIN(RADIANS(B3-$L$12)/2)^2 + COS(RADIANS(B3))*COS(RADIANS($L$12))*SIN(RADIANS(C3-$M$12)/2)^2))</f>
         <v>68.101968780840764</v>
       </c>
@@ -10834,43 +10834,43 @@
       <c r="J19">
         <v>3</v>
       </c>
-      <c r="K19" s="3">
-        <f t="shared" ref="K18:K81" si="15">6371.1*2*ASIN(SQRT(SIN(RADIANS(B4-$L$3)/2)^2 + COS(RADIANS(B4))*COS(RADIANS($L$3))*SIN(RADIANS(C4-$M$3)/2)^2))</f>
+      <c r="K19" s="1">
+        <f t="shared" ref="K19:K81" si="15">6371.1*2*ASIN(SQRT(SIN(RADIANS(B4-$L$3)/2)^2 + COS(RADIANS(B4))*COS(RADIANS($L$3))*SIN(RADIANS(C4-$M$3)/2)^2))</f>
         <v>37.347457991987653</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="1">
         <f t="shared" si="6"/>
         <v>177.52195512448495</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="1">
         <f t="shared" si="7"/>
         <v>16.496596758808124</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="1">
         <f t="shared" si="8"/>
         <v>58.209742160344803</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="1">
         <f t="shared" si="9"/>
         <v>134.73052731463099</v>
       </c>
-      <c r="P19" s="3">
+      <c r="P19" s="1">
         <f t="shared" si="10"/>
         <v>168.7211918400366</v>
       </c>
-      <c r="Q19" s="3">
+      <c r="Q19" s="1">
         <f t="shared" si="11"/>
         <v>51.100426249467368</v>
       </c>
-      <c r="R19" s="3">
+      <c r="R19" s="1">
         <f t="shared" si="12"/>
         <v>124.17072655986523</v>
       </c>
-      <c r="S19" s="3">
+      <c r="S19" s="1">
         <f t="shared" si="13"/>
         <v>28.494001471622497</v>
       </c>
-      <c r="T19" s="3">
+      <c r="T19" s="1">
         <f t="shared" si="14"/>
         <v>59.662193089227898</v>
       </c>
@@ -10899,43 +10899,43 @@
       <c r="J20">
         <v>4</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20" s="1">
         <f t="shared" si="15"/>
         <v>44.905974710509383</v>
       </c>
-      <c r="L20" s="3">
+      <c r="L20" s="1">
         <f t="shared" si="6"/>
         <v>178.9928736995636</v>
       </c>
-      <c r="M20" s="3">
+      <c r="M20" s="1">
         <f t="shared" si="7"/>
         <v>40.896036756385406</v>
       </c>
-      <c r="N20" s="3">
+      <c r="N20" s="1">
         <f t="shared" si="8"/>
         <v>57.27532514931675</v>
       </c>
-      <c r="O20" s="3">
+      <c r="O20" s="1">
         <f t="shared" si="9"/>
         <v>134.41662761122083</v>
       </c>
-      <c r="P20" s="3">
+      <c r="P20" s="1">
         <f t="shared" si="10"/>
         <v>167.1143753830753</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="Q20" s="1">
         <f t="shared" si="11"/>
         <v>75.371865912237482</v>
       </c>
-      <c r="R20" s="3">
+      <c r="R20" s="1">
         <f t="shared" si="12"/>
         <v>127.69053440617664</v>
       </c>
-      <c r="S20" s="3">
+      <c r="S20" s="1">
         <f t="shared" si="13"/>
         <v>48.885895200083645</v>
       </c>
-      <c r="T20" s="3">
+      <c r="T20" s="1">
         <f t="shared" si="14"/>
         <v>68.152867054726769</v>
       </c>
@@ -10964,43 +10964,43 @@
       <c r="J21">
         <v>5</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="1">
         <f t="shared" si="15"/>
         <v>69.13881631565684</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="1">
         <f t="shared" si="6"/>
         <v>176.45987576176447</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="1">
         <f t="shared" si="7"/>
         <v>68.745639157415809</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="1">
         <f t="shared" si="8"/>
         <v>60.752602014370574</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="1">
         <f t="shared" si="9"/>
         <v>131.22080022762756</v>
       </c>
-      <c r="P21" s="3">
+      <c r="P21" s="1">
         <f t="shared" si="10"/>
         <v>161.33811866450222</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="Q21" s="1">
         <f t="shared" si="11"/>
         <v>103.34097123969495</v>
       </c>
-      <c r="R21" s="3">
+      <c r="R21" s="1">
         <f t="shared" si="12"/>
         <v>129.18126881325702</v>
       </c>
-      <c r="S21" s="3">
+      <c r="S21" s="1">
         <f t="shared" si="13"/>
         <v>76.974934817622895</v>
       </c>
-      <c r="T21" s="3">
+      <c r="T21" s="1">
         <f t="shared" si="14"/>
         <v>79.531529281927462</v>
       </c>
@@ -11029,43 +11029,43 @@
       <c r="J22">
         <v>6</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="1">
         <f t="shared" si="15"/>
         <v>68.544857079400927</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="1">
         <f t="shared" si="6"/>
         <v>186.92082001350931</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="1">
         <f t="shared" si="7"/>
         <v>73.873484925614235</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="1">
         <f t="shared" si="8"/>
         <v>71.651030470307603</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="1">
         <f t="shared" si="9"/>
         <v>141.70078427215157</v>
       </c>
-      <c r="P22" s="3">
+      <c r="P22" s="1">
         <f t="shared" si="10"/>
         <v>171.4065857533692</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="1">
         <f t="shared" si="11"/>
         <v>108.16605003202642</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="1">
         <f t="shared" si="12"/>
         <v>140.02085425734305</v>
       </c>
-      <c r="S22" s="3">
+      <c r="S22" s="1">
         <f t="shared" si="13"/>
         <v>79.907459805083761</v>
       </c>
-      <c r="T22" s="3">
+      <c r="T22" s="1">
         <f t="shared" si="14"/>
         <v>90.038496133595373</v>
       </c>
@@ -11094,43 +11094,43 @@
       <c r="J23">
         <v>7</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="1">
         <f t="shared" si="15"/>
         <v>76.25912965863651</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="1">
         <f t="shared" si="6"/>
         <v>178.5552794221974</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="1">
         <f t="shared" si="7"/>
         <v>77.434984513511438</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="1">
         <f t="shared" si="8"/>
         <v>65.998148174254538</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="1">
         <f t="shared" si="9"/>
         <v>133.41377060797248</v>
       </c>
-      <c r="P23" s="3">
+      <c r="P23" s="1">
         <f t="shared" si="10"/>
         <v>162.51003452338944</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="Q23" s="1">
         <f t="shared" si="11"/>
         <v>112.02128223869333</v>
       </c>
-      <c r="R23" s="3">
+      <c r="R23" s="1">
         <f t="shared" si="12"/>
         <v>132.75517927260555</v>
       </c>
-      <c r="S23" s="3">
+      <c r="S23" s="1">
         <f t="shared" si="13"/>
         <v>85.316691880632732</v>
       </c>
-      <c r="T23" s="3">
+      <c r="T23" s="1">
         <f t="shared" si="14"/>
         <v>86.079871004940344</v>
       </c>
@@ -11159,43 +11159,43 @@
       <c r="J24">
         <v>8</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="1">
         <f t="shared" si="15"/>
         <v>74.30587379278596</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="1">
         <f t="shared" si="6"/>
         <v>174.01408189818565</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="1">
         <f t="shared" si="7"/>
         <v>73.009984001356486</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="1">
         <f t="shared" si="8"/>
         <v>60.275719265382797</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="1">
         <f t="shared" si="9"/>
         <v>128.81151701669981</v>
       </c>
-      <c r="P24" s="3">
+      <c r="P24" s="1">
         <f t="shared" si="10"/>
         <v>158.4046784110773</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="Q24" s="1">
         <f t="shared" si="11"/>
         <v>107.61141674939576</v>
       </c>
-      <c r="R24" s="3">
+      <c r="R24" s="1">
         <f t="shared" si="12"/>
         <v>127.58706236944302</v>
       </c>
-      <c r="S24" s="3">
+      <c r="S24" s="1">
         <f t="shared" si="13"/>
         <v>81.753281185839342</v>
       </c>
-      <c r="T24" s="3">
+      <c r="T24" s="1">
         <f t="shared" si="14"/>
         <v>80.161581190434788</v>
       </c>
@@ -11224,43 +11224,43 @@
       <c r="J25">
         <v>9</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="1">
         <f t="shared" si="15"/>
         <v>73.6920992814632</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="1">
         <f t="shared" si="6"/>
         <v>164.96454500035105</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="1">
         <f t="shared" si="7"/>
         <v>67.126731553237903</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="1">
         <f t="shared" si="8"/>
         <v>49.68752119227679</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="1">
         <f t="shared" si="9"/>
         <v>119.72270129562544</v>
       </c>
-      <c r="P25" s="3">
+      <c r="P25" s="1">
         <f t="shared" si="10"/>
         <v>150.06214619643089</v>
       </c>
-      <c r="Q25" s="3">
+      <c r="Q25" s="1">
         <f t="shared" si="11"/>
         <v>101.50191667834967</v>
       </c>
-      <c r="R25" s="3">
+      <c r="R25" s="1">
         <f t="shared" si="12"/>
         <v>117.64790626894587</v>
       </c>
-      <c r="S25" s="3">
+      <c r="S25" s="1">
         <f t="shared" si="13"/>
         <v>77.740111967958498</v>
       </c>
-      <c r="T25" s="3">
+      <c r="T25" s="1">
         <f t="shared" si="14"/>
         <v>69.54196912075281</v>
       </c>
@@ -11289,43 +11289,43 @@
       <c r="J26">
         <v>10</v>
       </c>
-      <c r="K26" s="3">
+      <c r="K26" s="1">
         <f t="shared" si="15"/>
         <v>76.901942433781926</v>
       </c>
-      <c r="L26" s="3">
+      <c r="L26" s="1">
         <f t="shared" si="6"/>
         <v>164.01893140384331</v>
       </c>
-      <c r="M26" s="3">
+      <c r="M26" s="1">
         <f t="shared" si="7"/>
         <v>70.382533665534126</v>
       </c>
-      <c r="N26" s="3">
+      <c r="N26" s="1">
         <f t="shared" si="8"/>
         <v>50.271525432525692</v>
       </c>
-      <c r="O26" s="3">
+      <c r="O26" s="1">
         <f t="shared" si="9"/>
         <v>118.79212736367207</v>
       </c>
-      <c r="P26" s="3">
+      <c r="P26" s="1">
         <f t="shared" si="10"/>
         <v>148.74138891657981</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="Q26" s="1">
         <f t="shared" si="11"/>
         <v>104.71552681153364</v>
       </c>
-      <c r="R26" s="3">
+      <c r="R26" s="1">
         <f t="shared" si="12"/>
         <v>117.32975052061833</v>
       </c>
-      <c r="S26" s="3">
+      <c r="S26" s="1">
         <f t="shared" si="13"/>
         <v>81.084214086064932</v>
       </c>
-      <c r="T26" s="3">
+      <c r="T26" s="1">
         <f t="shared" si="14"/>
         <v>70.863786221989443</v>
       </c>
@@ -11354,43 +11354,43 @@
       <c r="J27">
         <v>11</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="1">
         <f t="shared" si="15"/>
         <v>91.195919240659364</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="1">
         <f t="shared" si="6"/>
         <v>125.47315017679037</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="1">
         <f t="shared" si="7"/>
         <v>63.593971319428832</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="1">
         <f t="shared" si="8"/>
         <v>3.7107851141717183</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="1">
         <f t="shared" si="9"/>
         <v>81.324216335939695</v>
       </c>
-      <c r="P27" s="3">
+      <c r="P27" s="1">
         <f t="shared" si="10"/>
         <v>114.78914059288351</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="Q27" s="1">
         <f t="shared" si="11"/>
         <v>89.744817813739957</v>
       </c>
-      <c r="R27" s="3">
+      <c r="R27" s="1">
         <f t="shared" si="12"/>
         <v>74.103452498012416</v>
       </c>
-      <c r="S27" s="3">
+      <c r="S27" s="1">
         <f t="shared" si="13"/>
         <v>80.693878716492534</v>
       </c>
-      <c r="T27" s="3">
+      <c r="T27" s="1">
         <f t="shared" si="14"/>
         <v>24.794340051433149</v>
       </c>
@@ -11419,43 +11419,43 @@
       <c r="J28">
         <v>12</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="1">
         <f t="shared" si="15"/>
         <v>91.340654442298955</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="1">
         <f t="shared" si="6"/>
         <v>125.24960760608178</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="1">
         <f t="shared" si="7"/>
         <v>63.622291516803742</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="1">
         <f t="shared" si="8"/>
         <v>3.5509809813870565</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="1">
         <f t="shared" si="9"/>
         <v>81.129276766855071</v>
       </c>
-      <c r="P28" s="3">
+      <c r="P28" s="1">
         <f t="shared" si="10"/>
         <v>114.61913363903454</v>
       </c>
-      <c r="Q28" s="3">
+      <c r="Q28" s="1">
         <f t="shared" si="11"/>
         <v>89.66576447626251</v>
       </c>
-      <c r="R28" s="3">
+      <c r="R28" s="1">
         <f t="shared" si="12"/>
         <v>73.835444543986895</v>
       </c>
-      <c r="S28" s="3">
+      <c r="S28" s="1">
         <f t="shared" si="13"/>
         <v>80.744532284443309</v>
       </c>
-      <c r="T28" s="3">
+      <c r="T28" s="1">
         <f t="shared" si="14"/>
         <v>24.45530399309617</v>
       </c>
@@ -11484,43 +11484,43 @@
       <c r="J29">
         <v>13</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="1">
         <f t="shared" si="15"/>
         <v>91.279008122041446</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="1">
         <f t="shared" si="6"/>
         <v>124.21889342831683</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="1">
         <f t="shared" si="7"/>
         <v>61.850667283868972</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="1">
         <f t="shared" si="8"/>
         <v>6.5475487991276937</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="1">
         <f t="shared" si="9"/>
         <v>80.688954472834197</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="1">
         <f t="shared" si="10"/>
         <v>114.55866101742878</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="1">
         <f t="shared" si="11"/>
         <v>86.397673135851846</v>
       </c>
-      <c r="R29" s="3">
+      <c r="R29" s="1">
         <f t="shared" si="12"/>
         <v>71.990220822337591</v>
       </c>
-      <c r="S29" s="3">
+      <c r="S29" s="1">
         <f t="shared" si="13"/>
         <v>79.249355915550282</v>
       </c>
-      <c r="T29" s="3">
+      <c r="T29" s="1">
         <f t="shared" si="14"/>
         <v>19.155609752461778</v>
       </c>
@@ -11549,43 +11549,43 @@
       <c r="J30">
         <v>14</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="1">
         <f t="shared" si="15"/>
         <v>99.688278677942662</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="1">
         <f t="shared" si="6"/>
         <v>117.46049231766739</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="1">
         <f t="shared" si="7"/>
         <v>71.840120143510291</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="1">
         <f t="shared" si="8"/>
         <v>4.8882271178168173</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="1">
         <f t="shared" si="9"/>
         <v>73.072321593054141</v>
       </c>
-      <c r="P30" s="3">
+      <c r="P30" s="1">
         <f t="shared" si="10"/>
         <v>106.3846211977059</v>
       </c>
-      <c r="Q30" s="3">
+      <c r="Q30" s="1">
         <f t="shared" si="11"/>
         <v>97.02899320276056</v>
       </c>
-      <c r="R30" s="3">
+      <c r="R30" s="1">
         <f t="shared" si="12"/>
         <v>66.780353607566283</v>
       </c>
-      <c r="S30" s="3">
+      <c r="S30" s="1">
         <f t="shared" si="13"/>
         <v>89.047270542908166</v>
       </c>
-      <c r="T30" s="3">
+      <c r="T30" s="1">
         <f t="shared" si="14"/>
         <v>26.054602241143453</v>
       </c>
@@ -11614,43 +11614,43 @@
       <c r="J31">
         <v>15</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="1">
         <f t="shared" si="15"/>
         <v>106.8598258351912</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="1">
         <f t="shared" si="6"/>
         <v>109.84338019116589</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="1">
         <f t="shared" si="7"/>
         <v>77.991706702696959</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="1">
         <f t="shared" si="8"/>
         <v>12.073734628234282</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="1">
         <f t="shared" si="9"/>
         <v>65.553283259736133</v>
       </c>
-      <c r="P31" s="3">
+      <c r="P31" s="1">
         <f t="shared" si="10"/>
         <v>99.031312881983354</v>
       </c>
-      <c r="Q31" s="3">
+      <c r="Q31" s="1">
         <f t="shared" si="11"/>
         <v>101.65839232797266</v>
       </c>
-      <c r="R31" s="3">
+      <c r="R31" s="1">
         <f t="shared" si="12"/>
         <v>59.221277396213516</v>
       </c>
-      <c r="S31" s="3">
+      <c r="S31" s="1">
         <f t="shared" si="13"/>
         <v>95.392461670873587</v>
       </c>
-      <c r="T31" s="3">
+      <c r="T31" s="1">
         <f t="shared" si="14"/>
         <v>26.280787650733387</v>
       </c>
@@ -11679,43 +11679,43 @@
       <c r="J32">
         <v>16</v>
       </c>
-      <c r="K32" s="3">
+      <c r="K32" s="1">
         <f t="shared" si="15"/>
         <v>106.59618407057943</v>
       </c>
-      <c r="L32" s="3">
+      <c r="L32" s="1">
         <f t="shared" si="6"/>
         <v>109.92450488461347</v>
       </c>
-      <c r="M32" s="3">
+      <c r="M32" s="1">
         <f t="shared" si="7"/>
         <v>77.555545763174251</v>
       </c>
-      <c r="N32" s="3">
+      <c r="N32" s="1">
         <f t="shared" si="8"/>
         <v>11.917775458461428</v>
       </c>
-      <c r="O32" s="3">
+      <c r="O32" s="1">
         <f t="shared" si="9"/>
         <v>65.715593084840407</v>
       </c>
-      <c r="P32" s="3">
+      <c r="P32" s="1">
         <f t="shared" si="10"/>
         <v>99.261622259882458</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="Q32" s="1">
         <f t="shared" si="11"/>
         <v>101.07063496187416</v>
       </c>
-      <c r="R32" s="3">
+      <c r="R32" s="1">
         <f t="shared" si="12"/>
         <v>59.132123033233292</v>
       </c>
-      <c r="S32" s="3">
+      <c r="S32" s="1">
         <f t="shared" si="13"/>
         <v>94.978483922329033</v>
       </c>
-      <c r="T32" s="3">
+      <c r="T32" s="1">
         <f t="shared" si="14"/>
         <v>25.547406141542442</v>
       </c>
@@ -11744,43 +11744,43 @@
       <c r="J33">
         <v>17</v>
       </c>
-      <c r="K33" s="3">
+      <c r="K33" s="1">
         <f t="shared" si="15"/>
         <v>120.57558244988125</v>
       </c>
-      <c r="L33" s="3">
+      <c r="L33" s="1">
         <f t="shared" si="6"/>
         <v>95.789131835531137</v>
       </c>
-      <c r="M33" s="3">
+      <c r="M33" s="1">
         <f t="shared" si="7"/>
         <v>90.573168058142528</v>
       </c>
-      <c r="N33" s="3">
+      <c r="N33" s="1">
         <f t="shared" si="8"/>
         <v>26.093059260040533</v>
       </c>
-      <c r="O33" s="3">
+      <c r="O33" s="1">
         <f t="shared" si="9"/>
         <v>51.557089661589224</v>
       </c>
-      <c r="P33" s="3">
+      <c r="P33" s="1">
         <f t="shared" si="10"/>
         <v>85.239466895098616</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="Q33" s="1">
         <f t="shared" si="11"/>
         <v>112.03778180868356</v>
       </c>
-      <c r="R33" s="3">
+      <c r="R33" s="1">
         <f t="shared" si="12"/>
         <v>45.767259106209757</v>
       </c>
-      <c r="S33" s="3">
+      <c r="S33" s="1">
         <f t="shared" si="13"/>
         <v>108.14714198737829</v>
       </c>
-      <c r="T33" s="3">
+      <c r="T33" s="1">
         <f t="shared" si="14"/>
         <v>33.047824279560636</v>
       </c>
@@ -11809,43 +11809,43 @@
       <c r="J34">
         <v>18</v>
       </c>
-      <c r="K34" s="3">
+      <c r="K34" s="1">
         <f t="shared" si="15"/>
         <v>123.70094479269066</v>
       </c>
-      <c r="L34" s="3">
+      <c r="L34" s="1">
         <f t="shared" si="6"/>
         <v>92.393690787277151</v>
       </c>
-      <c r="M34" s="3">
+      <c r="M34" s="1">
         <f t="shared" si="7"/>
         <v>93.298586448970525</v>
       </c>
-      <c r="N34" s="3">
+      <c r="N34" s="1">
         <f t="shared" si="8"/>
         <v>29.43666566801619</v>
       </c>
-      <c r="O34" s="3">
+      <c r="O34" s="1">
         <f t="shared" si="9"/>
         <v>48.31417973992184</v>
       </c>
-      <c r="P34" s="3">
+      <c r="P34" s="1">
         <f t="shared" si="10"/>
         <v>82.143396982855251</v>
       </c>
-      <c r="Q34" s="3">
+      <c r="Q34" s="1">
         <f t="shared" si="11"/>
         <v>114.08271314462318</v>
       </c>
-      <c r="R34" s="3">
+      <c r="R34" s="1">
         <f t="shared" si="12"/>
         <v>42.285047820699312</v>
       </c>
-      <c r="S34" s="3">
+      <c r="S34" s="1">
         <f t="shared" si="13"/>
         <v>110.91254494948562</v>
       </c>
-      <c r="T34" s="3">
+      <c r="T34" s="1">
         <f t="shared" si="14"/>
         <v>34.679008133615859</v>
       </c>
@@ -11874,43 +11874,43 @@
       <c r="J35">
         <v>19</v>
       </c>
-      <c r="K35" s="3">
+      <c r="K35" s="1">
         <f t="shared" si="15"/>
         <v>132.57402930280784</v>
       </c>
-      <c r="L35" s="3">
+      <c r="L35" s="1">
         <f t="shared" si="6"/>
         <v>83.421594930766304</v>
       </c>
-      <c r="M35" s="3">
+      <c r="M35" s="1">
         <f t="shared" si="7"/>
         <v>101.7241313668426</v>
       </c>
-      <c r="N35" s="3">
+      <c r="N35" s="1">
         <f t="shared" si="8"/>
         <v>38.420977601753869</v>
       </c>
-      <c r="O35" s="3">
+      <c r="O35" s="1">
         <f t="shared" si="9"/>
         <v>39.385260910423497</v>
       </c>
-      <c r="P35" s="3">
+      <c r="P35" s="1">
         <f t="shared" si="10"/>
         <v>73.355674331655777</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="Q35" s="1">
         <f t="shared" si="11"/>
         <v>121.40742144892852</v>
       </c>
-      <c r="R35" s="3">
+      <c r="R35" s="1">
         <f t="shared" si="12"/>
         <v>34.07982172372963</v>
       </c>
-      <c r="S35" s="3">
+      <c r="S35" s="1">
         <f t="shared" si="13"/>
         <v>119.3790128857419</v>
       </c>
-      <c r="T35" s="3">
+      <c r="T35" s="1">
         <f t="shared" si="14"/>
         <v>41.720248782192606</v>
       </c>
@@ -11939,43 +11939,43 @@
       <c r="J36">
         <v>20</v>
       </c>
-      <c r="K36" s="3">
+      <c r="K36" s="1">
         <f t="shared" si="15"/>
         <v>144.47897706943505</v>
       </c>
-      <c r="L36" s="3">
+      <c r="L36" s="1">
         <f t="shared" si="6"/>
         <v>72.807218093902677</v>
       </c>
-      <c r="M36" s="3">
+      <c r="M36" s="1">
         <f t="shared" si="7"/>
         <v>114.04757839614823</v>
       </c>
-      <c r="N36" s="3">
+      <c r="N36" s="1">
         <f t="shared" si="8"/>
         <v>49.832702967266755</v>
       </c>
-      <c r="O36" s="3">
+      <c r="O36" s="1">
         <f t="shared" si="9"/>
         <v>27.905063115442569</v>
       </c>
-      <c r="P36" s="3">
+      <c r="P36" s="1">
         <f t="shared" si="10"/>
         <v>61.335929848683968</v>
       </c>
-      <c r="Q36" s="3">
+      <c r="Q36" s="1">
         <f t="shared" si="11"/>
         <v>133.66382002283132</v>
       </c>
-      <c r="R36" s="3">
+      <c r="R36" s="1">
         <f t="shared" si="12"/>
         <v>28.288846610052293</v>
       </c>
-      <c r="S36" s="3">
+      <c r="S36" s="1">
         <f t="shared" si="13"/>
         <v>131.68842029371598</v>
       </c>
-      <c r="T36" s="3">
+      <c r="T36" s="1">
         <f t="shared" si="14"/>
         <v>53.989645534282168</v>
       </c>
@@ -12004,43 +12004,43 @@
       <c r="J37">
         <v>21</v>
       </c>
-      <c r="K37" s="3">
+      <c r="K37" s="1">
         <f t="shared" si="15"/>
         <v>168.11813469663994</v>
       </c>
-      <c r="L37" s="3">
+      <c r="L37" s="1">
         <f t="shared" si="6"/>
         <v>49.661016638485059</v>
       </c>
-      <c r="M37" s="3">
+      <c r="M37" s="1">
         <f t="shared" si="7"/>
         <v>136.97878735742717</v>
       </c>
-      <c r="N37" s="3">
+      <c r="N37" s="1">
         <f t="shared" si="8"/>
         <v>73.613116914150126</v>
       </c>
-      <c r="O37" s="3">
+      <c r="O37" s="1">
         <f t="shared" si="9"/>
         <v>4.4850042725008841</v>
       </c>
-      <c r="P37" s="3">
+      <c r="P37" s="1">
         <f t="shared" si="10"/>
         <v>37.839365608673042</v>
       </c>
-      <c r="Q37" s="3">
+      <c r="Q37" s="1">
         <f t="shared" si="11"/>
         <v>154.68028716230057</v>
       </c>
-      <c r="R37" s="3">
+      <c r="R37" s="1">
         <f t="shared" si="12"/>
         <v>22.524337783818925</v>
       </c>
-      <c r="S37" s="3">
+      <c r="S37" s="1">
         <f t="shared" si="13"/>
         <v>154.66380604249005</v>
       </c>
-      <c r="T37" s="3">
+      <c r="T37" s="1">
         <f t="shared" si="14"/>
         <v>75.645573083861493</v>
       </c>
@@ -12069,43 +12069,43 @@
       <c r="J38">
         <v>22</v>
       </c>
-      <c r="K38" s="3">
+      <c r="K38" s="1">
         <f t="shared" si="15"/>
         <v>171.31999128276155</v>
       </c>
-      <c r="L38" s="3">
+      <c r="L38" s="1">
         <f t="shared" si="6"/>
         <v>47.540199997293506</v>
       </c>
-      <c r="M38" s="3">
+      <c r="M38" s="1">
         <f t="shared" si="7"/>
         <v>140.4151204554438</v>
       </c>
-      <c r="N38" s="3">
+      <c r="N38" s="1">
         <f t="shared" si="8"/>
         <v>76.677047054925382</v>
       </c>
-      <c r="O38" s="3">
+      <c r="O38" s="1">
         <f t="shared" si="9"/>
         <v>4.3363022451727335</v>
       </c>
-      <c r="P38" s="3">
+      <c r="P38" s="1">
         <f t="shared" si="10"/>
         <v>34.515721563635104</v>
       </c>
-      <c r="Q38" s="3">
+      <c r="Q38" s="1">
         <f t="shared" si="11"/>
         <v>158.33705123924685</v>
       </c>
-      <c r="R38" s="3">
+      <c r="R38" s="1">
         <f t="shared" si="12"/>
         <v>25.566799644727904</v>
       </c>
-      <c r="S38" s="3">
+      <c r="S38" s="1">
         <f t="shared" si="13"/>
         <v>158.09408811807523</v>
       </c>
-      <c r="T38" s="3">
+      <c r="T38" s="1">
         <f t="shared" si="14"/>
         <v>79.222330882491761</v>
       </c>
@@ -12134,43 +12134,43 @@
       <c r="J39">
         <v>23</v>
       </c>
-      <c r="K39" s="3">
+      <c r="K39" s="1">
         <f t="shared" si="15"/>
         <v>174.34117522307548</v>
       </c>
-      <c r="L39" s="3">
+      <c r="L39" s="1">
         <f t="shared" si="6"/>
         <v>44.364008809731843</v>
       </c>
-      <c r="M39" s="3">
+      <c r="M39" s="1">
         <f t="shared" si="7"/>
         <v>143.26311264362795</v>
       </c>
-      <c r="N39" s="3">
+      <c r="N39" s="1">
         <f t="shared" si="8"/>
         <v>79.75864840502706</v>
       </c>
-      <c r="O39" s="3">
+      <c r="O39" s="1">
         <f t="shared" si="9"/>
         <v>4.0481303782548483</v>
       </c>
-      <c r="P39" s="3">
+      <c r="P39" s="1">
         <f t="shared" si="10"/>
         <v>31.563082448191661</v>
       </c>
-      <c r="Q39" s="3">
+      <c r="Q39" s="1">
         <f t="shared" si="11"/>
         <v>160.84173235034325</v>
       </c>
-      <c r="R39" s="3">
+      <c r="R39" s="1">
         <f t="shared" si="12"/>
         <v>26.15679407692588</v>
       </c>
-      <c r="S39" s="3">
+      <c r="S39" s="1">
         <f t="shared" si="13"/>
         <v>160.94803549257122</v>
       </c>
-      <c r="T39" s="3">
+      <c r="T39" s="1">
         <f t="shared" si="14"/>
         <v>81.896171855352847</v>
       </c>
@@ -12199,43 +12199,43 @@
       <c r="J40">
         <v>24</v>
       </c>
-      <c r="K40" s="3">
+      <c r="K40" s="1">
         <f t="shared" si="15"/>
         <v>186.70933660698731</v>
       </c>
-      <c r="L40" s="3">
+      <c r="L40" s="1">
         <f t="shared" si="6"/>
         <v>29.337786216253544</v>
       </c>
-      <c r="M40" s="3">
+      <c r="M40" s="1">
         <f t="shared" si="7"/>
         <v>154.3712080484313</v>
       </c>
-      <c r="N40" s="3">
+      <c r="N40" s="1">
         <f t="shared" si="8"/>
         <v>92.909241262508573</v>
       </c>
-      <c r="O40" s="3">
+      <c r="O40" s="1">
         <f t="shared" si="9"/>
         <v>15.924419480395613</v>
       </c>
-      <c r="P40" s="3">
+      <c r="P40" s="1">
         <f t="shared" si="10"/>
         <v>22.931903731273852</v>
       </c>
-      <c r="Q40" s="3">
+      <c r="Q40" s="1">
         <f t="shared" si="11"/>
         <v>169.63760913199332</v>
       </c>
-      <c r="R40" s="3">
+      <c r="R40" s="1">
         <f t="shared" si="12"/>
         <v>29.114801583735584</v>
       </c>
-      <c r="S40" s="3">
+      <c r="S40" s="1">
         <f t="shared" si="13"/>
         <v>172.05036259429471</v>
       </c>
-      <c r="T40" s="3">
+      <c r="T40" s="1">
         <f t="shared" si="14"/>
         <v>92.211794136456732</v>
       </c>
@@ -12264,43 +12264,43 @@
       <c r="J41">
         <v>25</v>
       </c>
-      <c r="K41" s="3">
+      <c r="K41" s="1">
         <f t="shared" si="15"/>
         <v>219.74196742374312</v>
       </c>
-      <c r="L41" s="3">
+      <c r="L41" s="1">
         <f t="shared" si="6"/>
         <v>9.0670982679209615</v>
       </c>
-      <c r="M41" s="3">
+      <c r="M41" s="1">
         <f t="shared" si="7"/>
         <v>187.10695711741215</v>
       </c>
-      <c r="N41" s="3">
+      <c r="N41" s="1">
         <f t="shared" si="8"/>
         <v>125.90399447250793</v>
       </c>
-      <c r="O41" s="3">
+      <c r="O41" s="1">
         <f t="shared" si="9"/>
         <v>48.399238775622464</v>
       </c>
-      <c r="P41" s="3">
+      <c r="P41" s="1">
         <f t="shared" si="10"/>
         <v>20.476782550351913</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="Q41" s="1">
         <f t="shared" si="11"/>
         <v>201.05270017139122</v>
       </c>
-      <c r="R41" s="3">
+      <c r="R41" s="1">
         <f t="shared" si="12"/>
         <v>60.07995002018199</v>
       </c>
-      <c r="S41" s="3">
+      <c r="S41" s="1">
         <f t="shared" si="13"/>
         <v>204.76194614446459</v>
       </c>
-      <c r="T41" s="3">
+      <c r="T41" s="1">
         <f t="shared" si="14"/>
         <v>124.8069618998292</v>
       </c>
@@ -12329,43 +12329,43 @@
       <c r="J42">
         <v>26</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="1">
         <f t="shared" si="15"/>
         <v>224.06130695430502</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="1">
         <f t="shared" si="6"/>
         <v>17.47589734583843</v>
       </c>
-      <c r="M42" s="3">
+      <c r="M42" s="1">
         <f t="shared" si="7"/>
         <v>192.08846608571315</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="1">
         <f t="shared" si="8"/>
         <v>129.69584079028641</v>
       </c>
-      <c r="O42" s="3">
+      <c r="O42" s="1">
         <f t="shared" si="9"/>
         <v>52.13081338832972</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="1">
         <f t="shared" si="10"/>
         <v>19.991330672022009</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="Q42" s="1">
         <f t="shared" si="11"/>
         <v>207.05185172005397</v>
       </c>
-      <c r="R42" s="3">
+      <c r="R42" s="1">
         <f t="shared" si="12"/>
         <v>66.008014630431276</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="1">
         <f t="shared" si="13"/>
         <v>209.77265651433927</v>
       </c>
-      <c r="T42" s="3">
+      <c r="T42" s="1">
         <f t="shared" si="14"/>
         <v>129.95970080293247</v>
       </c>
@@ -12394,43 +12394,43 @@
       <c r="J43">
         <v>27</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="1">
         <f t="shared" si="15"/>
         <v>225.87344302427695</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="1">
         <f t="shared" si="6"/>
         <v>17.902392448865413</v>
       </c>
-      <c r="M43" s="3">
+      <c r="M43" s="1">
         <f t="shared" si="7"/>
         <v>193.81440415666958</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="1">
         <f t="shared" si="8"/>
         <v>131.55346974870002</v>
       </c>
-      <c r="O43" s="3">
+      <c r="O43" s="1">
         <f t="shared" si="9"/>
         <v>53.964765698223111</v>
       </c>
-      <c r="P43" s="3">
+      <c r="P43" s="1">
         <f t="shared" si="10"/>
         <v>21.979609497317906</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="Q43" s="1">
         <f t="shared" si="11"/>
         <v>208.60304480709974</v>
       </c>
-      <c r="R43" s="3">
+      <c r="R43" s="1">
         <f t="shared" si="12"/>
         <v>67.542279446443644</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="1">
         <f t="shared" si="13"/>
         <v>211.49566687921813</v>
       </c>
-      <c r="T43" s="3">
+      <c r="T43" s="1">
         <f t="shared" si="14"/>
         <v>131.65299616719469</v>
       </c>
@@ -12459,43 +12459,43 @@
       <c r="J44">
         <v>28</v>
       </c>
-      <c r="K44" s="3">
+      <c r="K44" s="1">
         <f t="shared" si="15"/>
         <v>225.95798721799139</v>
       </c>
-      <c r="L44" s="3">
+      <c r="L44" s="1">
         <f t="shared" si="6"/>
         <v>18.373980707072853</v>
       </c>
-      <c r="M44" s="3">
+      <c r="M44" s="1">
         <f t="shared" si="7"/>
         <v>193.94970859666461</v>
       </c>
-      <c r="N44" s="3">
+      <c r="N44" s="1">
         <f t="shared" si="8"/>
         <v>131.60572801456007</v>
       </c>
-      <c r="O44" s="3">
+      <c r="O44" s="1">
         <f t="shared" si="9"/>
         <v>54.033597405296824</v>
       </c>
-      <c r="P44" s="3">
+      <c r="P44" s="1">
         <f t="shared" si="10"/>
         <v>21.852299688116279</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="Q44" s="1">
         <f t="shared" si="11"/>
         <v>208.81888836267862</v>
       </c>
-      <c r="R44" s="3">
+      <c r="R44" s="1">
         <f t="shared" si="12"/>
         <v>67.76291696097023</v>
       </c>
-      <c r="S44" s="3">
+      <c r="S44" s="1">
         <f t="shared" si="13"/>
         <v>211.63258352120323</v>
       </c>
-      <c r="T44" s="3">
+      <c r="T44" s="1">
         <f t="shared" si="14"/>
         <v>131.80485149970488</v>
       </c>
@@ -12524,43 +12524,43 @@
       <c r="J45">
         <v>29</v>
       </c>
-      <c r="K45" s="3">
+      <c r="K45" s="1">
         <f t="shared" si="15"/>
         <v>226.47444791516662</v>
       </c>
-      <c r="L45" s="3">
+      <c r="L45" s="1">
         <f t="shared" si="6"/>
         <v>15.096019115364816</v>
       </c>
-      <c r="M45" s="3">
+      <c r="M45" s="1">
         <f t="shared" si="7"/>
         <v>193.98663191586957</v>
       </c>
-      <c r="N45" s="3">
+      <c r="N45" s="1">
         <f t="shared" si="8"/>
         <v>132.46309842332471</v>
       </c>
-      <c r="O45" s="3">
+      <c r="O45" s="1">
         <f t="shared" si="9"/>
         <v>54.861810173405622</v>
       </c>
-      <c r="P45" s="3">
+      <c r="P45" s="1">
         <f t="shared" si="10"/>
         <v>24.618393172564634</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="Q45" s="1">
         <f t="shared" si="11"/>
         <v>208.04974007591576</v>
       </c>
-      <c r="R45" s="3">
+      <c r="R45" s="1">
         <f t="shared" si="12"/>
         <v>67.063332749726513</v>
       </c>
-      <c r="S45" s="3">
+      <c r="S45" s="1">
         <f t="shared" si="13"/>
         <v>211.64862936241843</v>
       </c>
-      <c r="T45" s="3">
+      <c r="T45" s="1">
         <f t="shared" si="14"/>
         <v>131.70901690193224</v>
       </c>
@@ -12589,43 +12589,43 @@
       <c r="J46">
         <v>30</v>
       </c>
-      <c r="K46" s="3">
+      <c r="K46" s="1">
         <f t="shared" si="15"/>
         <v>224.27004126058799</v>
       </c>
-      <c r="L46" s="3">
+      <c r="L46" s="1">
         <f t="shared" si="6"/>
         <v>12.365726125165418</v>
       </c>
-      <c r="M46" s="3">
+      <c r="M46" s="1">
         <f t="shared" si="7"/>
         <v>191.6445836687875</v>
       </c>
-      <c r="N46" s="3">
+      <c r="N46" s="1">
         <f t="shared" si="8"/>
         <v>130.39071768711662</v>
       </c>
-      <c r="O46" s="3">
+      <c r="O46" s="1">
         <f t="shared" si="9"/>
         <v>52.847413120598418</v>
       </c>
-      <c r="P46" s="3">
+      <c r="P46" s="1">
         <f t="shared" si="10"/>
         <v>23.696019625948999</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="Q46" s="1">
         <f t="shared" si="11"/>
         <v>205.51433793560099</v>
       </c>
-      <c r="R46" s="3">
+      <c r="R46" s="1">
         <f t="shared" si="12"/>
         <v>64.577016864477628</v>
       </c>
-      <c r="S46" s="3">
+      <c r="S46" s="1">
         <f t="shared" si="13"/>
         <v>209.2988826779449</v>
       </c>
-      <c r="T46" s="3">
+      <c r="T46" s="1">
         <f t="shared" si="14"/>
         <v>129.34222228478643</v>
       </c>
@@ -12654,43 +12654,43 @@
       <c r="J47">
         <v>31</v>
       </c>
-      <c r="K47" s="3">
+      <c r="K47" s="1">
         <f t="shared" si="15"/>
         <v>215.11018035812484</v>
       </c>
-      <c r="L47" s="3">
+      <c r="L47" s="1">
         <f t="shared" si="6"/>
         <v>12.751050081406664</v>
       </c>
-      <c r="M47" s="3">
+      <c r="M47" s="1">
         <f t="shared" si="7"/>
         <v>182.99922147889166</v>
       </c>
-      <c r="N47" s="3">
+      <c r="N47" s="1">
         <f t="shared" si="8"/>
         <v>120.88131141479131</v>
       </c>
-      <c r="O47" s="3">
+      <c r="O47" s="1">
         <f t="shared" si="9"/>
         <v>43.260940250116299</v>
       </c>
-      <c r="P47" s="3">
+      <c r="P47" s="1">
         <f t="shared" si="10"/>
         <v>13.492702644642957</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="1">
         <f t="shared" si="11"/>
         <v>197.92397432531018</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="1">
         <f t="shared" si="12"/>
         <v>56.894874719987477</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="1">
         <f t="shared" si="13"/>
         <v>200.68050138025006</v>
       </c>
-      <c r="T47" s="3">
+      <c r="T47" s="1">
         <f t="shared" si="14"/>
         <v>120.84297388268936</v>
       </c>
@@ -12719,43 +12719,43 @@
       <c r="J48">
         <v>32</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="1">
         <f t="shared" si="15"/>
         <v>167.49319042207554</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="1">
         <f t="shared" si="6"/>
         <v>51.642281614648319</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="1">
         <f t="shared" si="7"/>
         <v>132.49538451481288</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="1">
         <f t="shared" si="8"/>
         <v>79.427533242299148</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="1">
         <f t="shared" si="9"/>
         <v>31.299714242512209</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="1">
         <f t="shared" si="10"/>
         <v>55.172872166291789</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="1">
         <f t="shared" si="11"/>
         <v>143.08369892594794</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="1">
         <f t="shared" si="12"/>
         <v>12.386157337233781</v>
       </c>
-      <c r="S48" s="3">
+      <c r="S48" s="1">
         <f t="shared" si="13"/>
         <v>149.84070509546964</v>
       </c>
-      <c r="T48" s="3">
+      <c r="T48" s="1">
         <f t="shared" si="14"/>
         <v>70.831784126441562</v>
       </c>
@@ -12784,43 +12784,43 @@
       <c r="J49">
         <v>33</v>
       </c>
-      <c r="K49" s="3">
+      <c r="K49" s="1">
         <f t="shared" si="15"/>
         <v>157.57302307924985</v>
       </c>
-      <c r="L49" s="3">
+      <c r="L49" s="1">
         <f t="shared" si="6"/>
         <v>78.915363111077383</v>
       </c>
-      <c r="M49" s="3">
+      <c r="M49" s="1">
         <f t="shared" si="7"/>
         <v>120.43929840762198</v>
       </c>
-      <c r="N49" s="3">
+      <c r="N49" s="1">
         <f t="shared" si="8"/>
         <v>82.622437195643499</v>
       </c>
-      <c r="O49" s="3">
+      <c r="O49" s="1">
         <f t="shared" si="9"/>
         <v>62.305165970869325</v>
       </c>
-      <c r="P49" s="3">
+      <c r="P49" s="1">
         <f t="shared" si="10"/>
         <v>86.561267865062788</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="1">
         <f t="shared" si="11"/>
         <v>123.75482396426237</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="1">
         <f t="shared" si="12"/>
         <v>40.507180022683357</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="1">
         <f t="shared" si="13"/>
         <v>136.61088706200022</v>
       </c>
-      <c r="T49" s="3">
+      <c r="T49" s="1">
         <f t="shared" si="14"/>
         <v>65.218337451791172</v>
       </c>
@@ -12849,43 +12849,43 @@
       <c r="J50">
         <v>34</v>
       </c>
-      <c r="K50" s="3">
+      <c r="K50" s="1">
         <f t="shared" si="15"/>
         <v>167.54072447849282</v>
       </c>
-      <c r="L50" s="3">
+      <c r="L50" s="1">
         <f t="shared" si="6"/>
         <v>68.696473662207268</v>
       </c>
-      <c r="M50" s="3">
+      <c r="M50" s="1">
         <f t="shared" si="7"/>
         <v>130.6554878489807</v>
       </c>
-      <c r="N50" s="3">
+      <c r="N50" s="1">
         <f t="shared" si="8"/>
         <v>89.029452972302508</v>
       </c>
-      <c r="O50" s="3">
+      <c r="O50" s="1">
         <f t="shared" si="9"/>
         <v>57.200860144243784</v>
       </c>
-      <c r="P50" s="3">
+      <c r="P50" s="1">
         <f t="shared" si="10"/>
         <v>78.145326527533982</v>
       </c>
-      <c r="Q50" s="3">
+      <c r="Q50" s="1">
         <f t="shared" si="11"/>
         <v>134.89305260834362</v>
       </c>
-      <c r="R50" s="3">
+      <c r="R50" s="1">
         <f t="shared" si="12"/>
         <v>36.720888531280004</v>
       </c>
-      <c r="S50" s="3">
+      <c r="S50" s="1">
         <f t="shared" si="13"/>
         <v>147.06359664228214</v>
       </c>
-      <c r="T50" s="3">
+      <c r="T50" s="1">
         <f t="shared" si="14"/>
         <v>73.612538892081403</v>
       </c>
@@ -12914,43 +12914,43 @@
       <c r="J51">
         <v>35</v>
       </c>
-      <c r="K51" s="3">
+      <c r="K51" s="1">
         <f t="shared" si="15"/>
         <v>179.58976046555938</v>
       </c>
-      <c r="L51" s="3">
+      <c r="L51" s="1">
         <f t="shared" si="6"/>
         <v>57.687014979791023</v>
       </c>
-      <c r="M51" s="3">
+      <c r="M51" s="1">
         <f t="shared" si="7"/>
         <v>142.96811203827681</v>
       </c>
-      <c r="N51" s="3">
+      <c r="N51" s="1">
         <f t="shared" si="8"/>
         <v>98.051692145951733</v>
       </c>
-      <c r="O51" s="3">
+      <c r="O51" s="1">
         <f t="shared" si="9"/>
         <v>54.327908390745115</v>
       </c>
-      <c r="P51" s="3">
+      <c r="P51" s="1">
         <f t="shared" si="10"/>
         <v>69.905878803906276</v>
       </c>
-      <c r="Q51" s="3">
+      <c r="Q51" s="1">
         <f t="shared" si="11"/>
         <v>147.95911646165101</v>
       </c>
-      <c r="R51" s="3">
+      <c r="R51" s="1">
         <f t="shared" si="12"/>
         <v>37.086364389214694</v>
       </c>
-      <c r="S51" s="3">
+      <c r="S51" s="1">
         <f t="shared" si="13"/>
         <v>159.56714875693024</v>
       </c>
-      <c r="T51" s="3">
+      <c r="T51" s="1">
         <f t="shared" si="14"/>
         <v>84.571553593834778</v>
       </c>
@@ -12979,43 +12979,43 @@
       <c r="J52">
         <v>36</v>
       </c>
-      <c r="K52" s="3">
+      <c r="K52" s="1">
         <f t="shared" si="15"/>
         <v>188.31432646993125</v>
       </c>
-      <c r="L52" s="3">
+      <c r="L52" s="1">
         <f t="shared" si="6"/>
         <v>73.228974307793521</v>
       </c>
-      <c r="M52" s="3">
+      <c r="M52" s="1">
         <f t="shared" si="7"/>
         <v>150.89258783252114</v>
       </c>
-      <c r="N52" s="3">
+      <c r="N52" s="1">
         <f t="shared" si="8"/>
         <v>113.63270710791532</v>
       </c>
-      <c r="O52" s="3">
+      <c r="O52" s="1">
         <f t="shared" si="9"/>
         <v>75.986140877732424</v>
       </c>
-      <c r="P52" s="3">
+      <c r="P52" s="1">
         <f t="shared" si="10"/>
         <v>88.953588699790814</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="Q52" s="1">
         <f t="shared" si="11"/>
         <v>150.99730490194219</v>
       </c>
-      <c r="R52" s="3">
+      <c r="R52" s="1">
         <f t="shared" si="12"/>
         <v>58.372757797636091</v>
       </c>
-      <c r="S52" s="3">
+      <c r="S52" s="1">
         <f t="shared" si="13"/>
         <v>166.54311109489626</v>
       </c>
-      <c r="T52" s="3">
+      <c r="T52" s="1">
         <f t="shared" si="14"/>
         <v>96.917112326782259</v>
       </c>
@@ -13044,43 +13044,43 @@
       <c r="J53">
         <v>37</v>
       </c>
-      <c r="K53" s="3">
+      <c r="K53" s="1">
         <f t="shared" si="15"/>
         <v>130.09713342726562</v>
       </c>
-      <c r="L53" s="3">
+      <c r="L53" s="1">
         <f t="shared" si="6"/>
         <v>122.34668910002223</v>
       </c>
-      <c r="M53" s="3">
+      <c r="M53" s="1">
         <f t="shared" si="7"/>
         <v>92.648802868066213</v>
       </c>
-      <c r="N53" s="3">
+      <c r="N53" s="1">
         <f t="shared" si="8"/>
         <v>82.21591803275858</v>
       </c>
-      <c r="O53" s="3">
+      <c r="O53" s="1">
         <f t="shared" si="9"/>
         <v>98.889080889791003</v>
       </c>
-      <c r="P53" s="3">
+      <c r="P53" s="1">
         <f t="shared" si="10"/>
         <v>127.76439585745594</v>
       </c>
-      <c r="Q53" s="3">
+      <c r="Q53" s="1">
         <f t="shared" si="11"/>
         <v>86.48057736893152</v>
       </c>
-      <c r="R53" s="3">
+      <c r="R53" s="1">
         <f t="shared" si="12"/>
         <v>77.175892044948228</v>
       </c>
-      <c r="S53" s="3">
+      <c r="S53" s="1">
         <f t="shared" si="13"/>
         <v>106.09714233078292</v>
       </c>
-      <c r="T53" s="3">
+      <c r="T53" s="1">
         <f t="shared" si="14"/>
         <v>58.114406414516928</v>
       </c>
@@ -13109,43 +13109,43 @@
       <c r="J54">
         <v>38</v>
       </c>
-      <c r="K54" s="3">
+      <c r="K54" s="1">
         <f t="shared" si="15"/>
         <v>127.29166346316751</v>
       </c>
-      <c r="L54" s="3">
+      <c r="L54" s="1">
         <f t="shared" si="6"/>
         <v>126.52921860140046</v>
       </c>
-      <c r="M54" s="3">
+      <c r="M54" s="1">
         <f t="shared" si="7"/>
         <v>89.986005744677612</v>
       </c>
-      <c r="N54" s="3">
+      <c r="N54" s="1">
         <f t="shared" si="8"/>
         <v>82.735032888905025</v>
       </c>
-      <c r="O54" s="3">
+      <c r="O54" s="1">
         <f t="shared" si="9"/>
         <v>102.46122645829999</v>
       </c>
-      <c r="P54" s="3">
+      <c r="P54" s="1">
         <f t="shared" si="10"/>
         <v>131.67925115412828</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="Q54" s="1">
         <f t="shared" si="11"/>
         <v>82.728393151241178</v>
       </c>
-      <c r="R54" s="3">
+      <c r="R54" s="1">
         <f t="shared" si="12"/>
         <v>80.865676015580092</v>
       </c>
-      <c r="S54" s="3">
+      <c r="S54" s="1">
         <f t="shared" si="13"/>
         <v>103.04665469053668</v>
       </c>
-      <c r="T54" s="3">
+      <c r="T54" s="1">
         <f t="shared" si="14"/>
         <v>58.447032974830769</v>
       </c>
@@ -13174,43 +13174,43 @@
       <c r="J55">
         <v>39</v>
       </c>
-      <c r="K55" s="3">
+      <c r="K55" s="1">
         <f t="shared" si="15"/>
         <v>25.860251047515106</v>
       </c>
-      <c r="L55" s="3">
+      <c r="L55" s="1">
         <f t="shared" si="6"/>
         <v>199.05631446612654</v>
       </c>
-      <c r="M55" s="3">
+      <c r="M55" s="1">
         <f t="shared" si="7"/>
         <v>17.597844042172206</v>
       </c>
-      <c r="N55" s="3">
+      <c r="N55" s="1">
         <f t="shared" si="8"/>
         <v>84.094426581849035</v>
       </c>
-      <c r="O55" s="3">
+      <c r="O55" s="1">
         <f t="shared" si="9"/>
         <v>158.05189924050151</v>
       </c>
-      <c r="P55" s="3">
+      <c r="P55" s="1">
         <f t="shared" si="10"/>
         <v>192.38540932950173</v>
       </c>
-      <c r="Q55" s="3">
+      <c r="Q55" s="1">
         <f t="shared" si="11"/>
         <v>32.048427452960446</v>
       </c>
-      <c r="R55" s="3">
+      <c r="R55" s="1">
         <f t="shared" si="12"/>
         <v>145.1057078093373</v>
       </c>
-      <c r="S55" s="3">
+      <c r="S55" s="1">
         <f t="shared" si="13"/>
         <v>0.13046036038891404</v>
       </c>
-      <c r="T55" s="3">
+      <c r="T55" s="1">
         <f t="shared" si="14"/>
         <v>79.872992865106752</v>
       </c>
@@ -13239,43 +13239,43 @@
       <c r="J56">
         <v>40</v>
       </c>
-      <c r="K56" s="3">
+      <c r="K56" s="1">
         <f t="shared" si="15"/>
         <v>22.597945141643653</v>
       </c>
-      <c r="L56" s="3">
+      <c r="L56" s="1">
         <f t="shared" si="6"/>
         <v>201.530917501289</v>
       </c>
-      <c r="M56" s="3">
+      <c r="M56" s="1">
         <f t="shared" si="7"/>
         <v>19.972907793842847</v>
       </c>
-      <c r="N56" s="3">
+      <c r="N56" s="1">
         <f t="shared" si="8"/>
         <v>85.786538950871559</v>
       </c>
-      <c r="O56" s="3">
+      <c r="O56" s="1">
         <f t="shared" si="9"/>
         <v>160.2743141917467</v>
       </c>
-      <c r="P56" s="3">
+      <c r="P56" s="1">
         <f t="shared" si="10"/>
         <v>194.57895327113792</v>
       </c>
-      <c r="Q56" s="3">
+      <c r="Q56" s="1">
         <f t="shared" si="11"/>
         <v>34.869843484646402</v>
       </c>
-      <c r="R56" s="3">
+      <c r="R56" s="1">
         <f t="shared" si="12"/>
         <v>147.60869576653769</v>
       </c>
-      <c r="S56" s="3">
+      <c r="S56" s="1">
         <f t="shared" si="13"/>
         <v>3.2226495967248128</v>
       </c>
-      <c r="T56" s="3">
+      <c r="T56" s="1">
         <f t="shared" si="14"/>
         <v>82.324998668709043</v>
       </c>
@@ -13304,43 +13304,43 @@
       <c r="J57">
         <v>41</v>
       </c>
-      <c r="K57" s="3">
+      <c r="K57" s="1">
         <f t="shared" si="15"/>
         <v>0.21774766559736514</v>
       </c>
-      <c r="L57" s="3">
+      <c r="L57" s="1">
         <f t="shared" si="6"/>
         <v>214.9571627787023</v>
       </c>
-      <c r="M57" s="3">
+      <c r="M57" s="1">
         <f t="shared" si="7"/>
         <v>37.831872278672691</v>
       </c>
-      <c r="N57" s="3">
+      <c r="N57" s="1">
         <f t="shared" si="8"/>
         <v>94.949210846093663</v>
       </c>
-      <c r="O57" s="3">
+      <c r="O57" s="1">
         <f t="shared" si="9"/>
         <v>172.01960119795632</v>
       </c>
-      <c r="P57" s="3">
+      <c r="P57" s="1">
         <f t="shared" si="10"/>
         <v>205.88112145341182</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="1">
         <f t="shared" si="11"/>
         <v>57.089342660174211</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="1">
         <f t="shared" si="12"/>
         <v>161.56983553198916</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="1">
         <f t="shared" si="13"/>
         <v>25.944642395531716</v>
       </c>
-      <c r="T57" s="3">
+      <c r="T57" s="1">
         <f t="shared" si="14"/>
         <v>96.770278112133951</v>
       </c>
@@ -13369,43 +13369,43 @@
       <c r="J58">
         <v>42</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="1">
         <f t="shared" si="15"/>
         <v>0.19954087797258541</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="1">
         <f t="shared" si="6"/>
         <v>214.83203451430944</v>
       </c>
-      <c r="M58" s="3">
+      <c r="M58" s="1">
         <f t="shared" si="7"/>
         <v>37.54941454294125</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="1">
         <f t="shared" si="8"/>
         <v>94.883655761294492</v>
       </c>
-      <c r="O58" s="3">
+      <c r="O58" s="1">
         <f t="shared" si="9"/>
         <v>171.92420896031609</v>
       </c>
-      <c r="P58" s="3">
+      <c r="P58" s="1">
         <f t="shared" si="10"/>
         <v>205.79843910389241</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="Q58" s="1">
         <f t="shared" si="11"/>
         <v>56.68208875280979</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="1">
         <f t="shared" si="12"/>
         <v>161.42800052648474</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="1">
         <f t="shared" si="13"/>
         <v>25.562582533288559</v>
       </c>
-      <c r="T58" s="3">
+      <c r="T58" s="1">
         <f t="shared" si="14"/>
         <v>96.603697684420084</v>
       </c>
@@ -13434,43 +13434,43 @@
       <c r="J59">
         <v>43</v>
       </c>
-      <c r="K59" s="3">
+      <c r="K59" s="1">
         <f t="shared" si="15"/>
         <v>6.9698284654698979</v>
       </c>
-      <c r="L59" s="3">
+      <c r="L59" s="1">
         <f t="shared" si="6"/>
         <v>221.1870082249722</v>
       </c>
-      <c r="M59" s="3">
+      <c r="M59" s="1">
         <f t="shared" si="7"/>
         <v>44.636778288209719</v>
       </c>
-      <c r="N59" s="3">
+      <c r="N59" s="1">
         <f t="shared" si="8"/>
         <v>100.75524427972</v>
       </c>
-      <c r="O59" s="3">
+      <c r="O59" s="1">
         <f t="shared" si="9"/>
         <v>178.03815727732911</v>
       </c>
-      <c r="P59" s="3">
+      <c r="P59" s="1">
         <f t="shared" si="10"/>
         <v>211.79285486735674</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="Q59" s="1">
         <f t="shared" si="11"/>
         <v>62.628892918708793</v>
       </c>
-      <c r="R59" s="3">
+      <c r="R59" s="1">
         <f t="shared" si="12"/>
         <v>167.91444858277808</v>
       </c>
-      <c r="S59" s="3">
+      <c r="S59" s="1">
         <f t="shared" si="13"/>
         <v>32.218736916170592</v>
       </c>
-      <c r="T59" s="3">
+      <c r="T59" s="1">
         <f t="shared" si="14"/>
         <v>103.26737508465985</v>
       </c>
@@ -13499,43 +13499,43 @@
       <c r="J60">
         <v>44</v>
       </c>
-      <c r="K60" s="3">
+      <c r="K60" s="1">
         <f t="shared" si="15"/>
         <v>9.0337428927592232</v>
       </c>
-      <c r="L60" s="3">
+      <c r="L60" s="1">
         <f t="shared" si="6"/>
         <v>222.91728194560963</v>
       </c>
-      <c r="M60" s="3">
+      <c r="M60" s="1">
         <f t="shared" si="7"/>
         <v>46.695463644176144</v>
       </c>
-      <c r="N60" s="3">
+      <c r="N60" s="1">
         <f t="shared" si="8"/>
         <v>102.33537599721787</v>
       </c>
-      <c r="O60" s="3">
+      <c r="O60" s="1">
         <f t="shared" si="9"/>
         <v>179.685761382961</v>
       </c>
-      <c r="P60" s="3">
+      <c r="P60" s="1">
         <f t="shared" si="10"/>
         <v>213.39598550807179</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="Q60" s="1">
         <f t="shared" si="11"/>
         <v>64.554587907989472</v>
       </c>
-      <c r="R60" s="3">
+      <c r="R60" s="1">
         <f t="shared" si="12"/>
         <v>169.69628618626535</v>
       </c>
-      <c r="S60" s="3">
+      <c r="S60" s="1">
         <f t="shared" si="13"/>
         <v>34.277059335571792</v>
       </c>
-      <c r="T60" s="3">
+      <c r="T60" s="1">
         <f t="shared" si="14"/>
         <v>105.12240901865177</v>
       </c>
@@ -13564,43 +13564,43 @@
       <c r="J61">
         <v>45</v>
       </c>
-      <c r="K61" s="3">
+      <c r="K61" s="1">
         <f t="shared" si="15"/>
         <v>10.830312960523186</v>
       </c>
-      <c r="L61" s="3">
+      <c r="L61" s="1">
         <f t="shared" si="6"/>
         <v>222.38610637584245</v>
       </c>
-      <c r="M61" s="3">
+      <c r="M61" s="1">
         <f t="shared" si="7"/>
         <v>47.897945216629388</v>
       </c>
-      <c r="N61" s="3">
+      <c r="N61" s="1">
         <f t="shared" si="8"/>
         <v>101.41225033836002</v>
       </c>
-      <c r="O61" s="3">
+      <c r="O61" s="1">
         <f t="shared" si="9"/>
         <v>178.91197641942895</v>
       </c>
-      <c r="P61" s="3">
+      <c r="P61" s="1">
         <f t="shared" si="10"/>
         <v>212.48800242457756</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="Q61" s="1">
         <f t="shared" si="11"/>
         <v>67.410450555335316</v>
       </c>
-      <c r="R61" s="3">
+      <c r="R61" s="1">
         <f t="shared" si="12"/>
         <v>169.35077430677208</v>
       </c>
-      <c r="S61" s="3">
+      <c r="S61" s="1">
         <f t="shared" si="13"/>
         <v>36.55882319218275</v>
       </c>
-      <c r="T61" s="3">
+      <c r="T61" s="1">
         <f t="shared" si="14"/>
         <v>105.0810134087514</v>
       </c>
@@ -13629,43 +13629,43 @@
       <c r="J62">
         <v>46</v>
       </c>
-      <c r="K62" s="3">
+      <c r="K62" s="1">
         <f t="shared" si="15"/>
         <v>15.936425207308044</v>
       </c>
-      <c r="L62" s="3">
+      <c r="L62" s="1">
         <f t="shared" si="6"/>
         <v>225.75560535254135</v>
       </c>
-      <c r="M62" s="3">
+      <c r="M62" s="1">
         <f t="shared" si="7"/>
         <v>52.701189623411182</v>
       </c>
-      <c r="N62" s="3">
+      <c r="N62" s="1">
         <f t="shared" si="8"/>
         <v>104.44779506897861</v>
       </c>
-      <c r="O62" s="3">
+      <c r="O62" s="1">
         <f t="shared" si="9"/>
         <v>182.04389739087949</v>
       </c>
-      <c r="P62" s="3">
+      <c r="P62" s="1">
         <f t="shared" si="10"/>
         <v>215.4582681155494</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="Q62" s="1">
         <f t="shared" si="11"/>
         <v>72.480201659782722</v>
       </c>
-      <c r="R62" s="3">
+      <c r="R62" s="1">
         <f t="shared" si="12"/>
         <v>172.92306433161713</v>
       </c>
-      <c r="S62" s="3">
+      <c r="S62" s="1">
         <f t="shared" si="13"/>
         <v>41.670339973439454</v>
       </c>
-      <c r="T62" s="3">
+      <c r="T62" s="1">
         <f t="shared" si="14"/>
         <v>108.9742025823487</v>
       </c>
@@ -13694,43 +13694,43 @@
       <c r="J63">
         <v>47</v>
       </c>
-      <c r="K63" s="3">
+      <c r="K63" s="1">
         <f t="shared" si="15"/>
         <v>20.169679360659696</v>
       </c>
-      <c r="L63" s="3">
+      <c r="L63" s="1">
         <f t="shared" si="6"/>
         <v>234.98392461930891</v>
       </c>
-      <c r="M63" s="3">
+      <c r="M63" s="1">
         <f t="shared" si="7"/>
         <v>56.070191124062916</v>
       </c>
-      <c r="N63" s="3">
+      <c r="N63" s="1">
         <f t="shared" si="8"/>
         <v>115.02002641900629</v>
       </c>
-      <c r="O63" s="3">
+      <c r="O63" s="1">
         <f t="shared" si="9"/>
         <v>192.11648519786189</v>
       </c>
-      <c r="P63" s="3">
+      <c r="P63" s="1">
         <f t="shared" si="10"/>
         <v>225.97714804060743</v>
       </c>
-      <c r="Q63" s="3">
+      <c r="Q63" s="1">
         <f t="shared" si="11"/>
         <v>67.619114267766449</v>
       </c>
-      <c r="R63" s="3">
+      <c r="R63" s="1">
         <f t="shared" si="12"/>
         <v>181.51448793212424</v>
       </c>
-      <c r="S63" s="3">
+      <c r="S63" s="1">
         <f t="shared" si="13"/>
         <v>40.972381239463196</v>
       </c>
-      <c r="T63" s="3">
+      <c r="T63" s="1">
         <f t="shared" si="14"/>
         <v>116.54853400836133</v>
       </c>
@@ -13759,43 +13759,43 @@
       <c r="J64">
         <v>48</v>
       </c>
-      <c r="K64" s="3">
+      <c r="K64" s="1">
         <f t="shared" si="15"/>
         <v>25.437094057254622</v>
       </c>
-      <c r="L64" s="3">
+      <c r="L64" s="1">
         <f t="shared" si="6"/>
         <v>222.14778212917844</v>
       </c>
-      <c r="M64" s="3">
+      <c r="M64" s="1">
         <f t="shared" si="7"/>
         <v>40.840041656677094</v>
       </c>
-      <c r="N64" s="3">
+      <c r="N64" s="1">
         <f t="shared" si="8"/>
         <v>107.00460784067673</v>
       </c>
-      <c r="O64" s="3">
+      <c r="O64" s="1">
         <f t="shared" si="9"/>
         <v>181.29405212751436</v>
       </c>
-      <c r="P64" s="3">
+      <c r="P64" s="1">
         <f t="shared" si="10"/>
         <v>215.62923650607712</v>
       </c>
-      <c r="Q64" s="3">
+      <c r="Q64" s="1">
         <f t="shared" si="11"/>
         <v>41.520144403047297</v>
       </c>
-      <c r="R64" s="3">
+      <c r="R64" s="1">
         <f t="shared" si="12"/>
         <v>168.17594684062155</v>
       </c>
-      <c r="S64" s="3">
+      <c r="S64" s="1">
         <f t="shared" si="13"/>
         <v>23.151056451597931</v>
       </c>
-      <c r="T64" s="3">
+      <c r="T64" s="1">
         <f t="shared" si="14"/>
         <v>103.02217650124528</v>
       </c>
@@ -13824,43 +13824,43 @@
       <c r="J65">
         <v>49</v>
       </c>
-      <c r="K65" s="3">
+      <c r="K65" s="1">
         <f t="shared" si="15"/>
         <v>27.231951420851797</v>
       </c>
-      <c r="L65" s="3">
+      <c r="L65" s="1">
         <f t="shared" si="6"/>
         <v>219.40764111762709</v>
       </c>
-      <c r="M65" s="3">
+      <c r="M65" s="1">
         <f t="shared" si="7"/>
         <v>38.475657402222723</v>
       </c>
-      <c r="N65" s="3">
+      <c r="N65" s="1">
         <f t="shared" si="8"/>
         <v>105.07169636674652</v>
       </c>
-      <c r="O65" s="3">
+      <c r="O65" s="1">
         <f t="shared" si="9"/>
         <v>178.83188660709317</v>
       </c>
-      <c r="P65" s="3">
+      <c r="P65" s="1">
         <f t="shared" si="10"/>
         <v>213.18911418179044</v>
       </c>
-      <c r="Q65" s="3">
+      <c r="Q65" s="1">
         <f t="shared" si="11"/>
         <v>37.689362769954087</v>
       </c>
-      <c r="R65" s="3">
+      <c r="R65" s="1">
         <f t="shared" si="12"/>
         <v>165.42723184928246</v>
       </c>
-      <c r="S65" s="3">
+      <c r="S65" s="1">
         <f t="shared" si="13"/>
         <v>20.920037548776037</v>
       </c>
-      <c r="T65" s="3">
+      <c r="T65" s="1">
         <f t="shared" si="14"/>
         <v>100.38146338652804</v>
       </c>
@@ -13889,43 +13889,43 @@
       <c r="J66">
         <v>50</v>
       </c>
-      <c r="K66" s="3">
+      <c r="K66" s="1">
         <f t="shared" si="15"/>
         <v>5.1605877583820305</v>
       </c>
-      <c r="L66" s="3">
+      <c r="L66" s="1">
         <f t="shared" si="6"/>
         <v>212.2481434402425</v>
       </c>
-      <c r="M66" s="3">
+      <c r="M66" s="1">
         <f t="shared" si="7"/>
         <v>33.484433564571127</v>
       </c>
-      <c r="N66" s="3">
+      <c r="N66" s="1">
         <f t="shared" si="8"/>
         <v>93.026208575147933</v>
       </c>
-      <c r="O66" s="3">
+      <c r="O66" s="1">
         <f t="shared" si="9"/>
         <v>169.67799424010809</v>
       </c>
-      <c r="P66" s="3">
+      <c r="P66" s="1">
         <f t="shared" si="10"/>
         <v>203.68281620942764</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="Q66" s="1">
         <f t="shared" si="11"/>
         <v>51.718225875066281</v>
       </c>
-      <c r="R66" s="3">
+      <c r="R66" s="1">
         <f t="shared" si="12"/>
         <v>158.67911661311152</v>
       </c>
-      <c r="S66" s="3">
+      <c r="S66" s="1">
         <f t="shared" si="13"/>
         <v>20.659458186523455</v>
       </c>
-      <c r="T66" s="3">
+      <c r="T66" s="1">
         <f t="shared" si="14"/>
         <v>93.628507718621123</v>
       </c>
@@ -13954,43 +13954,43 @@
       <c r="J67">
         <v>51</v>
       </c>
-      <c r="K67" s="3">
+      <c r="K67" s="1">
         <f t="shared" si="15"/>
         <v>6.8122650717904891</v>
       </c>
-      <c r="L67" s="3">
+      <c r="L67" s="1">
         <f t="shared" si="6"/>
         <v>214.33846102633737</v>
       </c>
-      <c r="M67" s="3">
+      <c r="M67" s="1">
         <f t="shared" si="7"/>
         <v>40.507223171013329</v>
       </c>
-      <c r="N67" s="3">
+      <c r="N67" s="1">
         <f t="shared" si="8"/>
         <v>93.495590925345795</v>
       </c>
-      <c r="O67" s="3">
+      <c r="O67" s="1">
         <f t="shared" si="9"/>
         <v>170.93804495356392</v>
       </c>
-      <c r="P67" s="3">
+      <c r="P67" s="1">
         <f t="shared" si="10"/>
         <v>204.57286396740307</v>
       </c>
-      <c r="Q67" s="3">
+      <c r="Q67" s="1">
         <f t="shared" si="11"/>
         <v>62.650753320442512</v>
       </c>
-      <c r="R67" s="3">
+      <c r="R67" s="1">
         <f t="shared" si="12"/>
         <v>161.26813353914787</v>
       </c>
-      <c r="S67" s="3">
+      <c r="S67" s="1">
         <f t="shared" si="13"/>
         <v>30.876411848177945</v>
       </c>
-      <c r="T67" s="3">
+      <c r="T67" s="1">
         <f t="shared" si="14"/>
         <v>96.990100759397123</v>
       </c>
@@ -14019,43 +14019,43 @@
       <c r="J68">
         <v>52</v>
       </c>
-      <c r="K68" s="3">
+      <c r="K68" s="1">
         <f t="shared" si="15"/>
         <v>64.12888409274089</v>
       </c>
-      <c r="L68" s="3">
+      <c r="L68" s="1">
         <f t="shared" si="6"/>
         <v>270.71038310061874</v>
       </c>
-      <c r="M68" s="3">
+      <c r="M68" s="1">
         <f t="shared" si="7"/>
         <v>89.630431281686626</v>
       </c>
-      <c r="N68" s="3">
+      <c r="N68" s="1">
         <f t="shared" si="8"/>
         <v>155.40944410302464</v>
       </c>
-      <c r="O68" s="3">
+      <c r="O68" s="1">
         <f t="shared" si="9"/>
         <v>230.0830000293725</v>
       </c>
-      <c r="P68" s="3">
+      <c r="P68" s="1">
         <f t="shared" si="10"/>
         <v>264.42005371763753</v>
       </c>
-      <c r="Q68" s="3">
+      <c r="Q68" s="1">
         <f t="shared" si="11"/>
         <v>81.891466067015571</v>
       </c>
-      <c r="R68" s="3">
+      <c r="R68" s="1">
         <f t="shared" si="12"/>
         <v>216.72979726875445</v>
       </c>
-      <c r="S68" s="3">
+      <c r="S68" s="1">
         <f t="shared" si="13"/>
         <v>71.941659426518385</v>
       </c>
-      <c r="T68" s="3">
+      <c r="T68" s="1">
         <f t="shared" si="14"/>
         <v>151.71259638757684</v>
       </c>
@@ -14064,43 +14064,43 @@
       <c r="J69">
         <v>53</v>
       </c>
-      <c r="K69" s="3">
+      <c r="K69" s="1">
         <f t="shared" si="15"/>
         <v>64.593860124463291</v>
       </c>
-      <c r="L69" s="3">
+      <c r="L69" s="1">
         <f t="shared" si="6"/>
         <v>270.70206487495602</v>
       </c>
-      <c r="M69" s="3">
+      <c r="M69" s="1">
         <f t="shared" si="7"/>
         <v>89.716786526770264</v>
       </c>
-      <c r="N69" s="3">
+      <c r="N69" s="1">
         <f t="shared" si="8"/>
         <v>155.60663089255962</v>
       </c>
-      <c r="O69" s="3">
+      <c r="O69" s="1">
         <f t="shared" si="9"/>
         <v>230.16026010960468</v>
       </c>
-      <c r="P69" s="3">
+      <c r="P69" s="1">
         <f t="shared" si="10"/>
         <v>264.50429807214516</v>
       </c>
-      <c r="Q69" s="3">
+      <c r="Q69" s="1">
         <f t="shared" si="11"/>
         <v>81.560282049052446</v>
       </c>
-      <c r="R69" s="3">
+      <c r="R69" s="1">
         <f t="shared" si="12"/>
         <v>216.72286853850412</v>
       </c>
-      <c r="S69" s="3">
+      <c r="S69" s="1">
         <f t="shared" si="13"/>
         <v>72.034577491581317</v>
       </c>
-      <c r="T69" s="3">
+      <c r="T69" s="1">
         <f t="shared" si="14"/>
         <v>151.743079113292</v>
       </c>
@@ -14109,43 +14109,43 @@
       <c r="J70">
         <v>54</v>
       </c>
-      <c r="K70" s="3">
+      <c r="K70" s="1">
         <f t="shared" si="15"/>
         <v>69.387927921900456</v>
       </c>
-      <c r="L70" s="3">
+      <c r="L70" s="1">
         <f t="shared" si="6"/>
         <v>276.44536164554802</v>
       </c>
-      <c r="M70" s="3">
+      <c r="M70" s="1">
         <f t="shared" si="7"/>
         <v>95.35709283637361</v>
       </c>
-      <c r="N70" s="3">
+      <c r="N70" s="1">
         <f t="shared" si="8"/>
         <v>161.06816242656743</v>
       </c>
-      <c r="O70" s="3">
+      <c r="O70" s="1">
         <f t="shared" si="9"/>
         <v>235.81088370798108</v>
       </c>
-      <c r="P70" s="3">
+      <c r="P70" s="1">
         <f t="shared" si="10"/>
         <v>270.14563076734697</v>
       </c>
-      <c r="Q70" s="3">
+      <c r="Q70" s="1">
         <f t="shared" si="11"/>
         <v>87.328547704733367</v>
       </c>
-      <c r="R70" s="3">
+      <c r="R70" s="1">
         <f t="shared" si="12"/>
         <v>222.46489073592619</v>
       </c>
-      <c r="S70" s="3">
+      <c r="S70" s="1">
         <f t="shared" si="13"/>
         <v>77.666889355399505</v>
       </c>
-      <c r="T70" s="3">
+      <c r="T70" s="1">
         <f t="shared" si="14"/>
         <v>157.44887237017224</v>
       </c>
@@ -14154,43 +14154,43 @@
       <c r="J71">
         <v>55</v>
       </c>
-      <c r="K71" s="3">
+      <c r="K71" s="1">
         <f t="shared" si="15"/>
         <v>155.01932574798232</v>
       </c>
-      <c r="L71" s="3">
+      <c r="L71" s="1">
         <f t="shared" si="6"/>
         <v>204.84543238183042</v>
       </c>
-      <c r="M71" s="3">
+      <c r="M71" s="1">
         <f t="shared" si="7"/>
         <v>128.23209977189325</v>
       </c>
-      <c r="N71" s="3">
+      <c r="N71" s="1">
         <f t="shared" si="8"/>
         <v>156.93146959512174</v>
       </c>
-      <c r="O71" s="3">
+      <c r="O71" s="1">
         <f t="shared" si="9"/>
         <v>186.15405350836241</v>
       </c>
-      <c r="P71" s="3">
+      <c r="P71" s="1">
         <f t="shared" si="10"/>
         <v>213.5363504615689</v>
       </c>
-      <c r="Q71" s="3">
+      <c r="Q71" s="1">
         <f t="shared" si="11"/>
         <v>98.296190307226311</v>
       </c>
-      <c r="R71" s="3">
+      <c r="R71" s="1">
         <f t="shared" si="12"/>
         <v>164.24075122774545</v>
       </c>
-      <c r="S71" s="3">
+      <c r="S71" s="1">
         <f t="shared" si="13"/>
         <v>130.37477959352833</v>
       </c>
-      <c r="T71" s="3">
+      <c r="T71" s="1">
         <f t="shared" si="14"/>
         <v>133.60296089242087</v>
       </c>
@@ -14199,43 +14199,43 @@
       <c r="J72">
         <v>56</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="1">
         <f t="shared" si="15"/>
         <v>136.86002417088883</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="1">
         <f t="shared" si="6"/>
         <v>189.52582127666869</v>
       </c>
-      <c r="M72" s="3">
+      <c r="M72" s="1">
         <f t="shared" si="7"/>
         <v>108.23038175143925</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="1">
         <f t="shared" si="8"/>
         <v>135.67284977530397</v>
       </c>
-      <c r="O72" s="3">
+      <c r="O72" s="1">
         <f t="shared" si="9"/>
         <v>167.9767351038561</v>
       </c>
-      <c r="P72" s="3">
+      <c r="P72" s="1">
         <f t="shared" si="10"/>
         <v>196.63379630745681</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="Q72" s="1">
         <f t="shared" si="11"/>
         <v>80.006890889808204</v>
       </c>
-      <c r="R72" s="3">
+      <c r="R72" s="1">
         <f t="shared" si="12"/>
         <v>146.32355345935008</v>
       </c>
-      <c r="S72" s="3">
+      <c r="S72" s="1">
         <f t="shared" si="13"/>
         <v>111.69184134304611</v>
       </c>
-      <c r="T72" s="3">
+      <c r="T72" s="1">
         <f t="shared" si="14"/>
         <v>112.50266613018346</v>
       </c>
@@ -14244,43 +14244,43 @@
       <c r="J73">
         <v>57</v>
       </c>
-      <c r="K73" s="3">
+      <c r="K73" s="1">
         <f t="shared" si="15"/>
         <v>57.601679538324454</v>
       </c>
-      <c r="L73" s="3">
+      <c r="L73" s="1">
         <f t="shared" si="6"/>
         <v>193.78937730269337</v>
       </c>
-      <c r="M73" s="3">
+      <c r="M73" s="1">
         <f t="shared" si="7"/>
         <v>34.885570521948665</v>
       </c>
-      <c r="N73" s="3">
+      <c r="N73" s="1">
         <f t="shared" si="8"/>
         <v>92.310283586017292</v>
       </c>
-      <c r="O73" s="3">
+      <c r="O73" s="1">
         <f t="shared" si="9"/>
         <v>157.00929493210063</v>
       </c>
-      <c r="P73" s="3">
+      <c r="P73" s="1">
         <f t="shared" si="10"/>
         <v>191.06550488979187</v>
       </c>
-      <c r="Q73" s="3">
+      <c r="Q73" s="1">
         <f t="shared" si="11"/>
         <v>0.85160249896858142</v>
       </c>
-      <c r="R73" s="3">
+      <c r="R73" s="1">
         <f t="shared" si="12"/>
         <v>140.49640226325604</v>
       </c>
-      <c r="S73" s="3">
+      <c r="S73" s="1">
         <f t="shared" si="13"/>
         <v>32.797779823098985</v>
       </c>
-      <c r="T73" s="3">
+      <c r="T73" s="1">
         <f t="shared" si="14"/>
         <v>79.268301422136517</v>
       </c>
@@ -14289,43 +14289,43 @@
       <c r="J74">
         <v>58</v>
       </c>
-      <c r="K74" s="3">
+      <c r="K74" s="1">
         <f t="shared" si="15"/>
         <v>140.95276729116461</v>
       </c>
-      <c r="L74" s="3">
+      <c r="L74" s="1">
         <f t="shared" si="6"/>
         <v>274.01387745689834</v>
       </c>
-      <c r="M74" s="3">
+      <c r="M74" s="1">
         <f t="shared" si="7"/>
         <v>134.97640002920164</v>
       </c>
-      <c r="N74" s="3">
+      <c r="N74" s="1">
         <f t="shared" si="8"/>
         <v>191.62923151683157</v>
       </c>
-      <c r="O74" s="3">
+      <c r="O74" s="1">
         <f t="shared" si="9"/>
         <v>245.39419104466626</v>
       </c>
-      <c r="P74" s="3">
+      <c r="P74" s="1">
         <f t="shared" si="10"/>
         <v>277.31636277422177</v>
       </c>
-      <c r="Q74" s="3">
+      <c r="Q74" s="1">
         <f t="shared" si="11"/>
         <v>101.45577059191491</v>
       </c>
-      <c r="R74" s="3">
+      <c r="R74" s="1">
         <f t="shared" si="12"/>
         <v>225.43330621962772</v>
       </c>
-      <c r="S74" s="3">
+      <c r="S74" s="1">
         <f t="shared" si="13"/>
         <v>125.57406447798375</v>
       </c>
-      <c r="T74" s="3">
+      <c r="T74" s="1">
         <f t="shared" si="14"/>
         <v>174.31361874196352</v>
       </c>
@@ -14334,43 +14334,43 @@
       <c r="J75">
         <v>59</v>
       </c>
-      <c r="K75" s="3">
+      <c r="K75" s="1">
         <f t="shared" si="15"/>
         <v>123.26442632285385</v>
       </c>
-      <c r="L75" s="3">
+      <c r="L75" s="1">
         <f t="shared" si="6"/>
         <v>131.22147208899932</v>
       </c>
-      <c r="M75" s="3">
+      <c r="M75" s="1">
         <f t="shared" si="7"/>
         <v>86.146241539317458</v>
       </c>
-      <c r="N75" s="3">
+      <c r="N75" s="1">
         <f t="shared" si="8"/>
         <v>82.59057232669528</v>
       </c>
-      <c r="O75" s="3">
+      <c r="O75" s="1">
         <f t="shared" si="9"/>
         <v>106.18097397965619</v>
       </c>
-      <c r="P75" s="3">
+      <c r="P75" s="1">
         <f t="shared" si="10"/>
         <v>135.89905552062493</v>
       </c>
-      <c r="Q75" s="3">
+      <c r="Q75" s="1">
         <f t="shared" si="11"/>
         <v>77.822800753956955</v>
       </c>
-      <c r="R75" s="3">
+      <c r="R75" s="1">
         <f t="shared" si="12"/>
         <v>84.781865468018111</v>
       </c>
-      <c r="S75" s="3">
+      <c r="S75" s="1">
         <f t="shared" si="13"/>
         <v>98.788493365155333</v>
       </c>
-      <c r="T75" s="3">
+      <c r="T75" s="1">
         <f t="shared" si="14"/>
         <v>58.201773277945904</v>
       </c>
@@ -14379,43 +14379,43 @@
       <c r="J76">
         <v>60</v>
       </c>
-      <c r="K76" s="3">
+      <c r="K76" s="1">
         <f t="shared" si="15"/>
         <v>95.77017362269838</v>
       </c>
-      <c r="L76" s="3">
+      <c r="L76" s="1">
         <f t="shared" si="6"/>
         <v>256.27453243364278</v>
       </c>
-      <c r="M76" s="3">
+      <c r="M76" s="1">
         <f t="shared" si="7"/>
         <v>96.093067355488955</v>
       </c>
-      <c r="N76" s="3">
+      <c r="N76" s="1">
         <f t="shared" si="8"/>
         <v>159.00723828969248</v>
       </c>
-      <c r="O76" s="3">
+      <c r="O76" s="1">
         <f t="shared" si="9"/>
         <v>222.16420511446483</v>
       </c>
-      <c r="P76" s="3">
+      <c r="P76" s="1">
         <f t="shared" si="10"/>
         <v>255.74787864385897</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="Q76" s="1">
         <f t="shared" si="11"/>
         <v>66.556956113448891</v>
       </c>
-      <c r="R76" s="3">
+      <c r="R76" s="1">
         <f t="shared" si="12"/>
         <v>204.28573333875647</v>
       </c>
-      <c r="S76" s="3">
+      <c r="S76" s="1">
         <f t="shared" si="13"/>
         <v>83.680861207489613</v>
       </c>
-      <c r="T76" s="3">
+      <c r="T76" s="1">
         <f t="shared" si="14"/>
         <v>145.69656620178043</v>
       </c>
@@ -14424,43 +14424,43 @@
       <c r="J77">
         <v>61</v>
       </c>
-      <c r="K77" s="3">
+      <c r="K77" s="1">
         <f t="shared" si="15"/>
         <v>95.210238541329446</v>
       </c>
-      <c r="L77" s="3">
+      <c r="L77" s="1">
         <f t="shared" si="6"/>
         <v>257.95079066506264</v>
       </c>
-      <c r="M77" s="3">
+      <c r="M77" s="1">
         <f t="shared" si="7"/>
         <v>96.535176332536636</v>
       </c>
-      <c r="N77" s="3">
+      <c r="N77" s="1">
         <f t="shared" si="8"/>
         <v>159.89406854487365</v>
       </c>
-      <c r="O77" s="3">
+      <c r="O77" s="1">
         <f t="shared" si="9"/>
         <v>223.59023645654366</v>
       </c>
-      <c r="P77" s="3">
+      <c r="P77" s="1">
         <f t="shared" si="10"/>
         <v>257.23704767190463</v>
       </c>
-      <c r="Q77" s="3">
+      <c r="Q77" s="1">
         <f t="shared" si="11"/>
         <v>67.561520319563812</v>
       </c>
-      <c r="R77" s="3">
+      <c r="R77" s="1">
         <f t="shared" si="12"/>
         <v>205.83884370556751</v>
       </c>
-      <c r="S77" s="3">
+      <c r="S77" s="1">
         <f t="shared" si="13"/>
         <v>83.771538754765487</v>
       </c>
-      <c r="T77" s="3">
+      <c r="T77" s="1">
         <f t="shared" si="14"/>
         <v>146.89658559225708</v>
       </c>
@@ -14469,43 +14469,43 @@
       <c r="J78">
         <v>62</v>
       </c>
-      <c r="K78" s="3">
+      <c r="K78" s="1">
         <f t="shared" si="15"/>
         <v>95.464836590955741</v>
       </c>
-      <c r="L78" s="3">
+      <c r="L78" s="1">
         <f t="shared" si="6"/>
         <v>257.44009445547999</v>
       </c>
-      <c r="M78" s="3">
+      <c r="M78" s="1">
         <f t="shared" si="7"/>
         <v>96.452288128580904</v>
       </c>
-      <c r="N78" s="3">
+      <c r="N78" s="1">
         <f t="shared" si="8"/>
         <v>159.66095873263822</v>
       </c>
-      <c r="O78" s="3">
+      <c r="O78" s="1">
         <f t="shared" si="9"/>
         <v>223.1689246540337</v>
       </c>
-      <c r="P78" s="3">
+      <c r="P78" s="1">
         <f t="shared" si="10"/>
         <v>256.79353440129859</v>
       </c>
-      <c r="Q78" s="3">
+      <c r="Q78" s="1">
         <f t="shared" si="11"/>
         <v>67.282077716870816</v>
       </c>
-      <c r="R78" s="3">
+      <c r="R78" s="1">
         <f t="shared" si="12"/>
         <v>205.37199564421786</v>
       </c>
-      <c r="S78" s="3">
+      <c r="S78" s="1">
         <f t="shared" si="13"/>
         <v>83.806955293014369</v>
       </c>
-      <c r="T78" s="3">
+      <c r="T78" s="1">
         <f t="shared" si="14"/>
         <v>146.55383450002122</v>
       </c>
@@ -14514,43 +14514,43 @@
       <c r="J79">
         <v>63</v>
       </c>
-      <c r="K79" s="3">
+      <c r="K79" s="1">
         <f t="shared" si="15"/>
         <v>118.0007422755393</v>
       </c>
-      <c r="L79" s="3">
+      <c r="L79" s="1">
         <f t="shared" si="6"/>
         <v>275.89664029500318</v>
       </c>
-      <c r="M79" s="3">
+      <c r="M79" s="1">
         <f t="shared" si="7"/>
         <v>119.4389616860698</v>
       </c>
-      <c r="N79" s="3">
+      <c r="N79" s="1">
         <f t="shared" si="8"/>
         <v>181.82286696124783</v>
       </c>
-      <c r="O79" s="3">
+      <c r="O79" s="1">
         <f t="shared" si="9"/>
         <v>243.19243218828223</v>
       </c>
-      <c r="P79" s="3">
+      <c r="P79" s="1">
         <f t="shared" si="10"/>
         <v>276.43470213149834</v>
       </c>
-      <c r="Q79" s="3">
+      <c r="Q79" s="1">
         <f t="shared" si="11"/>
         <v>89.28293050844583</v>
       </c>
-      <c r="R79" s="3">
+      <c r="R79" s="1">
         <f t="shared" si="12"/>
         <v>224.70604443323879</v>
       </c>
-      <c r="S79" s="3">
+      <c r="S79" s="1">
         <f t="shared" si="13"/>
         <v>106.96611830835684</v>
       </c>
-      <c r="T79" s="3">
+      <c r="T79" s="1">
         <f t="shared" si="14"/>
         <v>167.71460739243926</v>
       </c>
@@ -14559,43 +14559,43 @@
       <c r="J80">
         <v>64</v>
       </c>
-      <c r="K80" s="3">
+      <c r="K80" s="1">
         <f t="shared" si="15"/>
         <v>67.422640526379581</v>
       </c>
-      <c r="L80" s="3">
+      <c r="L80" s="1">
         <f t="shared" si="6"/>
         <v>279.36622574064876</v>
       </c>
-      <c r="M80" s="3">
+      <c r="M80" s="1">
         <f t="shared" si="7"/>
         <v>97.826787767749167</v>
       </c>
-      <c r="N80" s="3">
+      <c r="N80" s="1">
         <f t="shared" si="8"/>
         <v>161.5991769418618</v>
       </c>
-      <c r="O80" s="3">
+      <c r="O80" s="1">
         <f t="shared" si="9"/>
         <v>237.68591845277669</v>
       </c>
-      <c r="P80" s="3">
+      <c r="P80" s="1">
         <f t="shared" si="10"/>
         <v>271.86655920339018</v>
       </c>
-      <c r="Q80" s="3">
+      <c r="Q80" s="1">
         <f t="shared" si="11"/>
         <v>94.753899022686269</v>
       </c>
-      <c r="R80" s="3">
+      <c r="R80" s="1">
         <f t="shared" si="12"/>
         <v>225.46039487352269</v>
       </c>
-      <c r="S80" s="3">
+      <c r="S80" s="1">
         <f t="shared" si="13"/>
         <v>80.323392219006678</v>
       </c>
-      <c r="T80" s="3">
+      <c r="T80" s="1">
         <f t="shared" si="14"/>
         <v>160.16437705903712</v>
       </c>
@@ -14604,43 +14604,43 @@
       <c r="J81">
         <v>65</v>
       </c>
-      <c r="K81" s="3">
+      <c r="K81" s="1">
         <f t="shared" si="15"/>
         <v>35.508891788006082</v>
       </c>
-      <c r="L81" s="3">
+      <c r="L81" s="1">
         <f t="shared" si="6"/>
         <v>250.35583987064149</v>
       </c>
-      <c r="M81" s="3">
+      <c r="M81" s="1">
         <f t="shared" si="7"/>
         <v>71.067143099668016</v>
       </c>
-      <c r="N81" s="3">
+      <c r="N81" s="1">
         <f t="shared" si="8"/>
         <v>130.24585426405736</v>
       </c>
-      <c r="O81" s="3">
+      <c r="O81" s="1">
         <f t="shared" si="9"/>
         <v>207.4366735450557</v>
       </c>
-      <c r="P81" s="3">
+      <c r="P81" s="1">
         <f t="shared" si="10"/>
         <v>241.25498530754481</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="Q81" s="1">
         <f t="shared" si="11"/>
         <v>79.227893901717863</v>
       </c>
-      <c r="R81" s="3">
+      <c r="R81" s="1">
         <f t="shared" si="12"/>
         <v>196.88717176647495</v>
       </c>
-      <c r="S81" s="3">
+      <c r="S81" s="1">
         <f t="shared" si="13"/>
         <v>55.255927875130602</v>
       </c>
-      <c r="T81" s="3">
+      <c r="T81" s="1">
         <f t="shared" si="14"/>
         <v>131.89668264201092</v>
       </c>
@@ -14649,43 +14649,43 @@
       <c r="J82">
         <v>66</v>
       </c>
-      <c r="K82" s="3">
+      <c r="K82" s="1">
         <f t="shared" ref="K82:K83" si="18">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$3)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$3))*SIN(RADIANS(C67-$M$3)/2)^2))</f>
         <v>47.576272610042693</v>
       </c>
-      <c r="L82" s="3">
+      <c r="L82" s="1">
         <f t="shared" ref="L82:L83" si="19">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$4)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$4))*SIN(RADIANS(C67-$M$4)/2)^2))</f>
         <v>261.46657594303781</v>
       </c>
-      <c r="M82" s="3">
+      <c r="M82" s="1">
         <f t="shared" ref="M82:M83" si="20">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$5)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$5))*SIN(RADIANS(C67-$M$5)/2)^2))</f>
         <v>80.603722716520949</v>
       </c>
-      <c r="N82" s="3">
+      <c r="N82" s="1">
         <f t="shared" ref="N82:N83" si="21">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$6)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$6))*SIN(RADIANS(C67-$M$6)/2)^2))</f>
         <v>142.37486658300014</v>
       </c>
-      <c r="O82" s="3">
+      <c r="O82" s="1">
         <f t="shared" ref="O82:O83" si="22">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$7)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$7))*SIN(RADIANS(C67-$M$7)/2)^2))</f>
         <v>219.10404337616919</v>
       </c>
-      <c r="P82" s="3">
+      <c r="P82" s="1">
         <f t="shared" ref="P82:P83" si="23">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$8)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$8))*SIN(RADIANS(C67-$M$8)/2)^2))</f>
         <v>253.11928925781083</v>
       </c>
-      <c r="Q82" s="3">
+      <c r="Q82" s="1">
         <f t="shared" ref="Q82:Q83" si="24">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$9)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$9))*SIN(RADIANS(C67-$M$9)/2)^2))</f>
         <v>83.339650294848738</v>
       </c>
-      <c r="R82" s="3">
+      <c r="R82" s="1">
         <f t="shared" ref="R82:R83" si="25">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$10)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$10))*SIN(RADIANS(C67-$M$10)/2)^2))</f>
         <v>207.74330404686168</v>
       </c>
-      <c r="S82" s="3">
+      <c r="S82" s="1">
         <f t="shared" ref="S82:S83" si="26">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$11)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$11))*SIN(RADIANS(C67-$M$11)/2)^2))</f>
         <v>63.699651285572166</v>
       </c>
-      <c r="T82" s="3">
+      <c r="T82" s="1">
         <f t="shared" ref="T82:T83" si="27">6371.1*2*ASIN(SQRT(SIN(RADIANS(B67-$L$12)/2)^2 + COS(RADIANS(B67))*COS(RADIANS($L$12))*SIN(RADIANS(C67-$M$12)/2)^2))</f>
         <v>142.49293429796458</v>
       </c>
@@ -14694,43 +14694,43 @@
       <c r="J83">
         <v>67</v>
       </c>
-      <c r="K83" s="3">
+      <c r="K83" s="1">
         <f t="shared" si="18"/>
         <v>150.04957210588924</v>
       </c>
-      <c r="L83" s="3">
+      <c r="L83" s="1">
         <f t="shared" si="19"/>
         <v>313.34879198940382</v>
       </c>
-      <c r="M83" s="3">
+      <c r="M83" s="1">
         <f t="shared" si="20"/>
         <v>155.87744391098084</v>
       </c>
-      <c r="N83" s="3">
+      <c r="N83" s="1">
         <f t="shared" si="21"/>
         <v>219.40391745434215</v>
       </c>
-      <c r="O83" s="3">
+      <c r="O83" s="1">
         <f t="shared" si="22"/>
         <v>281.13739821865994</v>
       </c>
-      <c r="P83" s="3">
+      <c r="P83" s="1">
         <f t="shared" si="23"/>
         <v>314.28982873465878</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="Q83" s="1">
         <f t="shared" si="24"/>
         <v>126.92331091382277</v>
       </c>
-      <c r="R83" s="3">
+      <c r="R83" s="1">
         <f t="shared" si="25"/>
         <v>262.50366366182675</v>
       </c>
-      <c r="S83" s="3">
+      <c r="S83" s="1">
         <f t="shared" si="26"/>
         <v>142.2571399211657</v>
       </c>
-      <c r="T83" s="3">
+      <c r="T83" s="1">
         <f t="shared" si="27"/>
         <v>205.68219861660398</v>
       </c>

--- a/facilityData_brynjar.xlsx
+++ b/facilityData_brynjar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dtudk-my.sharepoint.com/personal/s232736_dtu_dk/Documents/Documents/GitHub/Supply/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BD04052-890A-4800-B088-75C8A4CA2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0BD04052-890A-4800-B088-75C8A4CA2796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5370AC69-492C-48AA-B465-3E48A75C7409}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="4" xr2:uid="{616461DC-34B2-47D2-883A-9C7FE9A966CA}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{616461DC-34B2-47D2-883A-9C7FE9A966CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Customers" sheetId="1" r:id="rId1"/>
@@ -632,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E143F4FB-0494-47CE-8F0D-B42D0E596E24}">
-  <dimension ref="A1:D68"/>
+  <dimension ref="A1:BT68"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="BL1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:BT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -643,7 +643,7 @@
     <col min="4" max="4" width="13.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -657,7 +657,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -684,8 +684,210 @@
       <c r="D3">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F3" cm="1">
+        <f t="array" ref="F3:BT3">TRANSPOSE(D2:D68)</f>
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
+      <c r="I3">
+        <v>28</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>24</v>
+      </c>
+      <c r="N3">
+        <v>23</v>
+      </c>
+      <c r="O3">
+        <v>18</v>
+      </c>
+      <c r="P3">
+        <v>19</v>
+      </c>
+      <c r="Q3">
+        <v>19</v>
+      </c>
+      <c r="R3">
+        <v>22</v>
+      </c>
+      <c r="S3">
+        <v>16</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>22</v>
+      </c>
+      <c r="W3">
+        <v>18</v>
+      </c>
+      <c r="X3">
+        <v>10</v>
+      </c>
+      <c r="Y3">
+        <v>13</v>
+      </c>
+      <c r="Z3">
+        <v>19</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>24</v>
+      </c>
+      <c r="AC3">
+        <v>23</v>
+      </c>
+      <c r="AD3">
+        <v>15</v>
+      </c>
+      <c r="AE3">
+        <v>15</v>
+      </c>
+      <c r="AF3">
+        <v>47</v>
+      </c>
+      <c r="AG3">
+        <v>20</v>
+      </c>
+      <c r="AH3">
+        <v>40</v>
+      </c>
+      <c r="AI3">
+        <v>9</v>
+      </c>
+      <c r="AJ3">
+        <v>12</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>3</v>
+      </c>
+      <c r="AM3">
+        <v>21</v>
+      </c>
+      <c r="AN3">
+        <v>4</v>
+      </c>
+      <c r="AO3">
+        <v>16</v>
+      </c>
+      <c r="AP3">
+        <v>9</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>22</v>
+      </c>
+      <c r="AS3">
+        <v>20</v>
+      </c>
+      <c r="AT3">
+        <v>3</v>
+      </c>
+      <c r="AU3">
+        <v>7</v>
+      </c>
+      <c r="AV3">
+        <v>5</v>
+      </c>
+      <c r="AW3">
+        <v>10</v>
+      </c>
+      <c r="AX3">
+        <v>16</v>
+      </c>
+      <c r="AY3">
+        <v>17</v>
+      </c>
+      <c r="AZ3">
+        <v>15</v>
+      </c>
+      <c r="BA3">
+        <v>9</v>
+      </c>
+      <c r="BB3">
+        <v>10</v>
+      </c>
+      <c r="BC3">
+        <v>6</v>
+      </c>
+      <c r="BD3">
+        <v>14</v>
+      </c>
+      <c r="BE3">
+        <v>16</v>
+      </c>
+      <c r="BF3">
+        <v>17</v>
+      </c>
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3">
+        <v>17</v>
+      </c>
+      <c r="BI3">
+        <v>15</v>
+      </c>
+      <c r="BJ3">
+        <v>8</v>
+      </c>
+      <c r="BK3">
+        <v>2</v>
+      </c>
+      <c r="BL3">
+        <v>16</v>
+      </c>
+      <c r="BM3">
+        <v>19</v>
+      </c>
+      <c r="BN3">
+        <v>6</v>
+      </c>
+      <c r="BO3">
+        <v>3</v>
+      </c>
+      <c r="BP3">
+        <v>11</v>
+      </c>
+      <c r="BQ3">
+        <v>15</v>
+      </c>
+      <c r="BR3">
+        <v>3</v>
+      </c>
+      <c r="BS3">
+        <v>4</v>
+      </c>
+      <c r="BT3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -699,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -713,7 +915,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -727,7 +929,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -741,7 +943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -755,7 +957,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -769,7 +971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -783,7 +985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -797,7 +999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -811,7 +1013,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -825,7 +1027,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -839,7 +1041,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -853,7 +1055,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1597,6 +1799,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1605,7 +1808,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9987,8 +10190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1407E011-C170-4307-B166-14F2580075C6}">
   <dimension ref="A1:T83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView topLeftCell="O61" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:T83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14737,5 +14940,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>